--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test2/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.83611344716226</v>
+        <v>11.83611344716337</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7.723620845799637</v>
+        <v>7.723620845801833</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>13.19011605332915</v>
+        <v>13.19011605332804</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.356193141366646</v>
+        <v>2.356193141366102</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5.850574626537519</v>
+        <v>5.850574626539402</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>9.641595943146646</v>
+        <v>9.641595943147017</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.031364350085695</v>
+        <v>1.031364350085376</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>14.30228085491115</v>
+        <v>14.30228085491283</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>19.73399659133204</v>
+        <v>19.73399659133057</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8.936342679392842</v>
+        <v>8.936342679387744</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7.431785123063724</v>
+        <v>7.431785123060626</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>12.35635316782751</v>
+        <v>12.35635316782679</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>7.508660406091055</v>
+        <v>7.508660406091179</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1.602101728880598</v>
+        <v>-1.602101728879575</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.748068644098909</v>
+        <v>5.748068644100634</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.992121096187381</v>
+        <v>9.992121096190232</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9.937788831826383</v>
+        <v>9.937788831822672</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>16.36759480974252</v>
+        <v>16.36759480974099</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2.502653358901394</v>
+        <v>-2.502653358903331</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1.178512507814489</v>
+        <v>-1.178512507818358</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6.736935130102864</v>
+        <v>6.736935130104015</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-9.553233036887029</v>
+        <v>-9.553233036894518</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4.213951493929322</v>
+        <v>4.213951493926706</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>14.63621976215268</v>
+        <v>14.63621976215248</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>19.01061631753554</v>
+        <v>19.0106163175361</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>21.04034683752543</v>
+        <v>21.04034683752437</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.282876931087374</v>
+        <v>4.282876931088957</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.66675144772734</v>
+        <v>21.66675144772835</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22.48487564246494</v>
+        <v>22.48487564246707</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.453248140546233</v>
+        <v>5.453248140548906</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.49468000690049</v>
+        <v>31.49468000690509</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.06436088407442</v>
+        <v>34.06436088408265</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.06788090349404</v>
+        <v>35.06788090349069</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>34.57618979031653</v>
+        <v>34.57618979031272</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>37.91860564249525</v>
+        <v>37.91860564249345</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>14.37553936454576</v>
+        <v>14.37553936454349</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>23.03811136989569</v>
+        <v>23.03811136989778</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>26.16357384075763</v>
+        <v>26.16357384075318</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>9.982281689567179</v>
+        <v>9.982281689562535</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>18.53179189961605</v>
+        <v>18.53179189961852</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>23.3819051078586</v>
+        <v>23.38190510785861</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-1.756660164200404</v>
+        <v>-1.756660164196703</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>14.57208961375141</v>
+        <v>14.57208961375509</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>21.54108878297433</v>
+        <v>21.541088782979</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>24.05166318752399</v>
+        <v>24.05166318751642</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.247520565751156</v>
+        <v>9.247520565752602</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>15.52452188443231</v>
+        <v>15.52452188443364</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>19.83036230541649</v>
+        <v>19.83036230541754</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.880138014648487</v>
+        <v>2.880138014648374</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>22.91181716637514</v>
+        <v>22.91181716637455</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.80400709488233</v>
+        <v>26.80400709487915</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4.993244865357751</v>
+        <v>4.993244865359642</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>33.3199825153685</v>
+        <v>33.31998251537073</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>38.55587349096593</v>
+        <v>38.55587349096475</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.98945518604859</v>
+        <v>34.98945518605039</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.46413341618803</v>
+        <v>34.46413341619119</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>41.35620665297359</v>
+        <v>41.35620665297306</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6.750948362782836</v>
+        <v>6.75094836278406</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>19.51236788757929</v>
+        <v>19.51236788757931</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>26.41931974746183</v>
+        <v>26.41931974746225</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4.685878611724965</v>
+        <v>4.685878611724242</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>15.00142297243486</v>
+        <v>15.00142297243339</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>23.32471231872057</v>
+        <v>23.32471231871901</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-4.933819633699088</v>
+        <v>-4.933819633699521</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>14.13543569970176</v>
+        <v>14.13543569970199</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.57719133016858</v>
+        <v>25.57719133017005</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-5.188835360501791</v>
+        <v>-5.188835360502765</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>24.69735599096697</v>
+        <v>24.69735599096603</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4.946034405765275</v>
+        <v>4.946034405765218</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>8.068839955229464</v>
+        <v>8.068839955231194</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>16.46250797753849</v>
+        <v>16.46250797753591</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5.111028878703806</v>
+        <v>5.111028878699699</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>18.3574302090196</v>
+        <v>18.35743020902162</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.25005343523484</v>
+        <v>26.25005343523649</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4.895767188590268</v>
+        <v>4.895767188590167</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>27.0337425112378</v>
+        <v>27.03374251124066</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.06507151652387</v>
+        <v>36.06507151652812</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>19.9439641519396</v>
+        <v>19.94396415194213</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>22.67484380901177</v>
+        <v>22.67484380901544</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>32.64091193666174</v>
+        <v>32.64091193666211</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>8.706867839921966</v>
+        <v>8.706867839920243</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.82772479739294</v>
+        <v>12.82772479739439</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25.27910912847357</v>
+        <v>25.27910912847295</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4.400439448371413</v>
+        <v>4.400439448374883</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>12.49896639865102</v>
+        <v>12.49896639865186</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>23.54644571267894</v>
+        <v>23.54644571267993</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.4661361717659709</v>
+        <v>0.4661361717671326</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>12.79895995377357</v>
+        <v>12.79895995378118</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>26.87402023413218</v>
+        <v>26.87402023413683</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-4.624963170407728</v>
+        <v>-4.624963170409842</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>19.15311879575078</v>
+        <v>19.15311879574936</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>13.90506395359751</v>
+        <v>13.9050639535939</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>4.070318294816119</v>
+        <v>4.070318294814671</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>9.63373231788081</v>
+        <v>9.633732317880265</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>16.39911236222109</v>
+        <v>16.39911236222539</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1.290947501386729</v>
+        <v>1.290947501387123</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3.056285145865786</v>
+        <v>3.056285145865587</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>10.06963681301969</v>
+        <v>10.06963681301774</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>10.93945703991766</v>
+        <v>10.93945703991768</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>13.76962261218043</v>
+        <v>13.76962261218123</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>23.17240857285674</v>
+        <v>23.17240857285661</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-6.958409320883831</v>
+        <v>-6.9584093208803</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-0.4489131251004643</v>
+        <v>-0.4489131251004039</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>10.11347419950136</v>
+        <v>10.11347419950522</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-5.895820349459537</v>
+        <v>-5.895820349456113</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>12.69655725894168</v>
+        <v>12.6965572589425</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>25.5926887648289</v>
+        <v>25.59268876482984</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>19.5525838617569</v>
+        <v>19.55258386175666</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>27.19165461377943</v>
+        <v>27.19165461378154</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>36.12411711608596</v>
+        <v>36.12411711608912</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>-1.246995609061884</v>
+        <v>-1.246995609061152</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>7.934594981365649</v>
+        <v>7.934594981367347</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>21.37901546052705</v>
+        <v>21.37901546052846</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>32.69773115596871</v>
+        <v>32.69773115597093</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>32.73455863519047</v>
+        <v>32.73455863519636</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>35.08360414000717</v>
+        <v>35.08360414001493</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>41.48565497160546</v>
+        <v>41.48565497161074</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>11.95812454158279</v>
+        <v>11.95812454158185</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>32.85086553701761</v>
+        <v>32.85086553701618</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>38.00043169130706</v>
+        <v>38.00043169130822</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>16.99679144420352</v>
+        <v>16.99679144420212</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>30.08769368086977</v>
+        <v>30.08769368087085</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>36.1297466909036</v>
+        <v>36.12974669090363</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2.739556488313607</v>
+        <v>2.739556488313003</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>26.92774986345809</v>
+        <v>26.92774986345452</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.64236970946244</v>
+        <v>33.64236970945837</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>9.33630722411467</v>
+        <v>9.336307224111458</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>43.9249966466971</v>
+        <v>43.9249966467013</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>53.06686887016781</v>
+        <v>53.06686887016678</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>63.43941453979217</v>
+        <v>63.43941453979068</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>65.63165174775339</v>
+        <v>65.63165174775496</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>70.43989640889905</v>
+        <v>70.43989640889886</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>23.61025807648139</v>
+        <v>23.61025807647827</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>54.9061827629248</v>
+        <v>54.90618276292714</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>62.91028839158133</v>
+        <v>62.91028839158324</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>37.24096593863277</v>
+        <v>37.24096593863187</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.99077560970942</v>
+        <v>29.99077560971091</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>31.22873470085612</v>
+        <v>31.22873470085325</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>42.92516651512612</v>
+        <v>42.9251665151252</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>3.442249906279432</v>
+        <v>3.4422499062778</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.521594414232</v>
+        <v>28.52159441422887</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>39.23621353403693</v>
+        <v>39.23621353403772</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>10.35768362339717</v>
+        <v>10.35768362339411</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.59008391511016</v>
+        <v>26.59008391511222</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.75515046531325</v>
+        <v>35.75515046531424</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-1.05384786471858</v>
+        <v>-1.053847864719732</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>27.58564436443422</v>
+        <v>27.58564436443722</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.2112021054575</v>
+        <v>38.21120210545503</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>6.921203763159884</v>
+        <v>6.921203763163174</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>45.33841670134666</v>
+        <v>45.33841670134724</v>
       </c>
     </row>
     <row r="152">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>62.03014345022828</v>
+        <v>62.03014345022702</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>64.0265647127942</v>
+        <v>64.02656471279175</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>73.44656371430069</v>
+        <v>73.44656371430125</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>15.72187479776761</v>
+        <v>15.72187479776794</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>53.48177800152015</v>
+        <v>53.48177800152005</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>66.38272922149592</v>
+        <v>66.38272922149429</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>34.28528151542022</v>
+        <v>34.28528151542366</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>14.51950415516904</v>
+        <v>14.51950415516961</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>23.70907930554714</v>
+        <v>23.70907930554747</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.92915636904179</v>
+        <v>37.92915636903862</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>4.051175287437209</v>
+        <v>4.051175287438683</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>21.1212413479768</v>
+        <v>21.12124134797564</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>35.69134234675185</v>
+        <v>35.69134234675108</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>11.48376219643082</v>
+        <v>11.483762196429</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>24.61914624229255</v>
+        <v>24.61914624229021</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>38.20688076844726</v>
+        <v>38.20688076844567</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>4.022240726482508</v>
+        <v>4.022240726480007</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>24.25669746143589</v>
+        <v>24.25669746143775</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40.21993811626509</v>
+        <v>40.21993811626612</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>7.501673322450731</v>
+        <v>7.501673322448909</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>38.47726947190115</v>
+        <v>38.47726947190034</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>56.1242211656122</v>
+        <v>56.1242211656133</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>41.8593765443965</v>
+        <v>41.85937654439474</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>54.49719282041942</v>
+        <v>54.49719282041728</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>69.9847655438622</v>
+        <v>69.98476554386232</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>10.94627588211075</v>
+        <v>10.94627588210617</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>39.00757135378171</v>
+        <v>39.0075713537821</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>59.25236960064161</v>
+        <v>59.25236960064113</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-11.91193067589305</v>
+        <v>-11.91193067589294</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-7.164313983793988</v>
+        <v>-7.164313983792557</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-0.02898132172082768</v>
+        <v>-0.02898132171898027</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-19.76522896096218</v>
+        <v>-19.76522896096587</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-5.428720459826948</v>
+        <v>-5.428720459827161</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-1.643578847043159</v>
+        <v>-1.64357884704285</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-16.46921004472657</v>
+        <v>-16.4692100447232</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6.967622920384501</v>
+        <v>6.967622920388356</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>12.27274946105898</v>
+        <v>12.27274946106112</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-0.8788985777743221</v>
+        <v>-0.878898577776841</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>2.301769179664348</v>
+        <v>2.301769179662028</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>6.670574916034537</v>
+        <v>6.670574916032987</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-14.75413289770653</v>
+        <v>-14.75413289770516</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-9.864650139166514</v>
+        <v>-9.864650139164155</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-0.4973952823348142</v>
+        <v>-0.4973952823362389</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-6.286097972345754</v>
+        <v>-6.2860979723499</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-0.1379381379538351</v>
+        <v>-0.1379381379546842</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>4.43079951796301</v>
+        <v>4.430799517962313</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-20.13384125205845</v>
+        <v>-20.13384125205828</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-10.95150846319878</v>
+        <v>-10.95150846319857</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-7.077626720536195</v>
+        <v>-7.077626720536987</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-20.36381855279861</v>
+        <v>-20.36381855279717</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.6932784033396864</v>
+        <v>0.6932784033404964</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-12.80740326651215</v>
+        <v>-12.80740326651156</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-0.7484253356987693</v>
+        <v>-0.7484253356981228</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1.62460705270778</v>
+        <v>1.624607052708129</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-21.43514041857829</v>
+        <v>-21.43514041857539</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>5.192251900337967</v>
+        <v>5.192251900339736</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>4.195864528833495</v>
+        <v>4.195864528833644</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-16.73603647750311</v>
+        <v>-16.73603647750064</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>18.00446193557559</v>
+        <v>18.00446193557878</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>18.87963745563592</v>
+        <v>18.87963745564008</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>19.74524008894064</v>
+        <v>19.74524008894225</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>22.57492146894647</v>
+        <v>22.57492146894516</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>23.66815261323627</v>
+        <v>23.66815261323407</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-11.47724329330492</v>
+        <v>-11.47724329330374</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>9.106077399216185</v>
+        <v>9.106077399217027</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>11.89358371016533</v>
+        <v>11.89358371016611</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>-8.065247587529178</v>
+        <v>-8.065247587529619</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>5.484854220907062</v>
+        <v>5.484854220906392</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>7.001199581477668</v>
+        <v>7.001199581479442</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>-22.0725369729101</v>
+        <v>-22.07253697291222</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.5082461906248916</v>
+        <v>0.5082461906266893</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1.387394576169822</v>
+        <v>1.387394576168298</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-17.94607588416049</v>
+        <v>-17.94607588416341</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>15.39922607222167</v>
+        <v>15.39922607222333</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-20.42066716811035</v>
+        <v>-20.42066716811264</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-6.927870594081508</v>
+        <v>-6.927870594079504</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-2.801242518172259</v>
+        <v>-2.801242518169101</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-25.0724574158433</v>
+        <v>-25.07245741584165</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>3.632644912800574</v>
+        <v>3.632644912801299</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>5.00320721411523</v>
+        <v>5.003207214115456</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-19.91680934571284</v>
+        <v>-19.91680934571252</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>16.57650860620508</v>
+        <v>16.57650860620815</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>19.51009815215948</v>
+        <v>19.51009815216108</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>17.40004530374808</v>
+        <v>17.40004530375049</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>20.00287559232647</v>
+        <v>20.00287559232658</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>23.70373535595908</v>
+        <v>23.70373535595759</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-20.90288784670555</v>
+        <v>-20.90288784670327</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>3.059434898546211</v>
+        <v>3.059434898545526</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>8.623246158533856</v>
+        <v>8.623246158535663</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-14.62377125783379</v>
+        <v>-14.62377125783456</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.3777520156109446</v>
+        <v>0.3777520156107599</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>4.728578276210683</v>
+        <v>4.728578276208756</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-26.71075242682924</v>
+        <v>-26.71075242682994</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-1.78192923405593</v>
+        <v>-1.78192923405544</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>2.704480861520484</v>
+        <v>2.704480861520167</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-21.51954124445427</v>
+        <v>-21.51954124445349</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>13.78722293256319</v>
+        <v>13.78722293256645</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-21.67777275434275</v>
+        <v>-21.67777275434467</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-10.1146714211762</v>
+        <v>-10.11467142117567</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-1.023245460161931</v>
+        <v>-1.023245460159153</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-20.09510229197032</v>
+        <v>-20.09510229196924</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3.477462684095778</v>
+        <v>3.477462684095942</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>9.985756714405131</v>
+        <v>9.985756714405989</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-16.23492255249615</v>
+        <v>-16.23492255249595</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>15.59043135139463</v>
+        <v>15.59043135139477</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>23.30131380989484</v>
+        <v>23.30131380989359</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>6.992882594030224</v>
+        <v>6.992882594032983</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>14.15062049824128</v>
+        <v>14.15062049824307</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>21.84442161445915</v>
+        <v>21.8444216144569</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-16.51345955546532</v>
+        <v>-16.5134595554653</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1.017003021486385</v>
+        <v>1.017003021488314</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>13.58455275255522</v>
+        <v>13.58455275255688</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-14.61433967297137</v>
+        <v>-14.61433967297589</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-0.7053336516420536</v>
+        <v>-0.7053336516426612</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>7.20386634533431</v>
+        <v>7.203866345333008</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-20.73400004258899</v>
+        <v>-20.73400004258983</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-1.02810053948027</v>
+        <v>-1.028100539481585</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>7.239331357456368</v>
+        <v>7.239331357458699</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-19.46994996934452</v>
+        <v>-19.46994996934755</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>11.13942737085264</v>
+        <v>11.1394273708534</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>6.651384271603904</v>
+        <v>6.651384271604458</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.6302089675395877</v>
+        <v>0.630208967540046</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>7.943518377162125</v>
+        <v>7.943518377161016</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>10.84643066939916</v>
+        <v>10.84643066939815</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-10.50699105280199</v>
+        <v>-10.50699105280376</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-0.8415399844459657</v>
+        <v>-0.8415399844448466</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>3.126619957516091</v>
+        <v>3.126619957517555</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-7.022187752968186</v>
+        <v>-7.022187752970289</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>2.652148596959066</v>
+        <v>2.652148596959069</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>11.37628793807925</v>
+        <v>11.37628793807931</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-23.76401628648816</v>
+        <v>-23.76401628648543</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-8.948425908869339</v>
+        <v>-8.948425908869226</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-1.021924436556457</v>
+        <v>-1.021924436556233</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-17.25965491691123</v>
+        <v>-17.25965491691004</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>8.89646172896996</v>
+        <v>8.896461728972085</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>19.23442699904964</v>
+        <v>19.23442699905072</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>12.99970237765064</v>
+        <v>12.99970237764924</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>23.1390620332749</v>
+        <v>23.13906203327538</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>30.09406953025659</v>
+        <v>30.09406953025428</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-13.77328591180444</v>
+        <v>-13.77328591180364</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>4.66488480309604</v>
+        <v>4.664884803097131</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>15.67770412311739</v>
+        <v>15.67770412311815</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>18.54584944254403</v>
+        <v>18.54584944254485</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>24.54196539793862</v>
+        <v>24.5419653979373</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>27.35225654934278</v>
+        <v>27.35225654934357</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.36451812467948</v>
+        <v>28.36451812467812</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-3.663657120419252</v>
+        <v>-3.663657120425086</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>22.94736938568076</v>
+        <v>22.9473693856799</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>22.44673122863425</v>
+        <v>22.4467312286347</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-7.078177591945028</v>
+        <v>-7.078177591944389</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-22.11821840467469</v>
+        <v>-22.11821840467528</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>9.282725716158577</v>
+        <v>9.282725716158328</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>11.04828715461834</v>
+        <v>11.04828715461982</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-11.47812724732323</v>
+        <v>-11.4781272473248</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.61470021640844</v>
+        <v>29.61470021640964</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>34.22844647403058</v>
+        <v>34.22844647403205</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>44.82680727636637</v>
+        <v>44.82680727636793</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>49.23561211722797</v>
+        <v>49.23561211722956</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>50.68007044588963</v>
+        <v>50.68007044588942</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>0.2360122661408326</v>
+        <v>0.2360122661403423</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>39.22227027187393</v>
+        <v>39.22227027187392</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>41.91374849507305</v>
+        <v>41.91374849507351</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>20.08749713489616</v>
+        <v>20.08749713489495</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>20.42426569048962</v>
+        <v>20.42426569049013</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>22.14239553463039</v>
+        <v>22.14239553463131</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>27.36895477295304</v>
+        <v>27.36895477295378</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-13.24712020477818</v>
+        <v>-13.24712020477839</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>17.09363269343689</v>
+        <v>17.0936326934374</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>20.9477008360296</v>
+        <v>20.94770083602884</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-14.51534753311869</v>
+        <v>-14.51534753311832</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>7.540849472955225</v>
+        <v>7.540849472954632</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>13.59468573375875</v>
+        <v>13.59468573375664</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-27.17899028077083</v>
+        <v>-27.17899028076963</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>8.384268778460868</v>
+        <v>8.384268778459425</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>13.08678894698729</v>
+        <v>13.08678894698615</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-15.52727631692098</v>
+        <v>-15.52727631692201</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.10929397653265</v>
+        <v>29.10929397653078</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>36.25704109109229</v>
+        <v>36.25704109109513</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>42.32020492859267</v>
+        <v>42.32020492859283</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>46.69096659019415</v>
+        <v>46.69096659019532</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>51.68149673018078</v>
+        <v>51.68149673017786</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-8.151045121037988</v>
+        <v>-8.151045121037274</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>36.96285492580204</v>
+        <v>36.96285492580246</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>43.23606100776195</v>
+        <v>43.23606100776117</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>21.00620569199955</v>
+        <v>21.00620569199698</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>7.53244585530034</v>
+        <v>7.53244585529386</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>18.30719534084943</v>
+        <v>18.30719534084757</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>26.59863697586663</v>
+        <v>26.59863697586585</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-11.17246877237691</v>
+        <v>-11.17246877238182</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>13.2037295483062</v>
+        <v>13.20372954830486</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>22.33000263329852</v>
+        <v>22.33000263329895</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-9.167011620696314</v>
+        <v>-9.167011620696165</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>10.51177033256083</v>
+        <v>10.51177033255839</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>22.00194164964561</v>
+        <v>22.00194164964702</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-16.40665356452408</v>
+        <v>-16.40665356452116</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>11.76483156736868</v>
+        <v>11.76483156736615</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>23.16276203520865</v>
+        <v>23.16276203520674</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-7.994957907700492</v>
+        <v>-7.994957907701316</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30.18353369224915</v>
+        <v>30.18353369224995</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>43.60025267877123</v>
+        <v>43.60025267877015</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>31.7324629417822</v>
+        <v>31.73246294178213</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>46.9123819984522</v>
+        <v>46.91238199845162</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>58.32893750961659</v>
+        <v>58.32893750961502</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-4.446018536515041</v>
+        <v>-4.446018536515897</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>32.4238170932153</v>
+        <v>32.42381709321609</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>47.63568213282372</v>
+        <v>47.63568213282603</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-1.986151074409499</v>
+        <v>-1.986151074411801</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>8.598601584040512</v>
+        <v>8.598601584038796</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>13.38188022806609</v>
+        <v>13.38188022806405</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-13.85153278057274</v>
+        <v>-13.85153278057631</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>4.246448025784137</v>
+        <v>4.246448025779511</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>6.224960966513619</v>
+        <v>6.224960966509991</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-8.899768467799184</v>
+        <v>-8.899768467797919</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>17.99448919170067</v>
+        <v>17.99448919170127</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>21.54495599486071</v>
+        <v>21.54495599486072</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.924195230765417</v>
+        <v>7.924195230765653</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>14.29705022394246</v>
+        <v>14.29705022394287</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>17.7662031557423</v>
+        <v>17.76620315574478</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-8.671253871524772</v>
+        <v>-8.671253871526087</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>5.947492597079762</v>
+        <v>5.94749259707805</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>10.82663957943757</v>
+        <v>10.82663957943619</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>3.867986908333569</v>
+        <v>3.867986908333013</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>13.3742463470601</v>
+        <v>13.37424634706108</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>16.76616670897388</v>
+        <v>16.76616670897464</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-8.969271845212241</v>
+        <v>-8.969271845213317</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>1.405427098333817</v>
+        <v>1.40542709833398</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>4.646337345895562</v>
+        <v>4.646337345894608</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-8.389245156941179</v>
+        <v>-8.389245156938657</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>13.61369688624791</v>
+        <v>13.61369688624856</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-1.414192760263639</v>
+        <v>-1.414192760265379</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>17.25038431213194</v>
+        <v>17.25038431213017</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>17.45864616668785</v>
+        <v>17.45864616668628</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-11.7465372948472</v>
+        <v>-11.74653729484472</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>19.24056805726575</v>
+        <v>19.24056805726563</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>16.60359302499788</v>
+        <v>16.60359302499902</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-6.148983806778595</v>
+        <v>-6.148983806781366</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>32.5656700572051</v>
+        <v>32.56567005720208</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>31.84780663603588</v>
+        <v>31.84780663603188</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>30.1336326498922</v>
+        <v>30.13363264989012</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>37.10657539747726</v>
+        <v>37.1065753974771</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>37.64902300486675</v>
+        <v>37.64902300486698</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-3.792090779075579</v>
+        <v>-3.792090779075849</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>27.495335293901</v>
+        <v>27.49533529390038</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>26.18113112277274</v>
+        <v>26.18113112277186</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>3.360945764051692</v>
+        <v>3.360945764051912</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>21.12857448622946</v>
+        <v>21.12857448622903</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>21.77918393482388</v>
+        <v>21.7791839348226</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-7.835319990412849</v>
+        <v>-7.835319990418022</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>16.61170663042425</v>
+        <v>16.61170663042427</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>17.15514233031281</v>
+        <v>17.15514233031279</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-3.294190214561503</v>
+        <v>-3.294190214560633</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>31.58610667272168</v>
+        <v>31.58610667271992</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>-8.641514963191874</v>
+        <v>-8.641514963190712</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>11.1333674874616</v>
+        <v>11.13336748746446</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>13.18399471395008</v>
+        <v>13.1839947139507</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-14.97839781093217</v>
+        <v>-14.97839781093287</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>17.72036141860149</v>
+        <v>17.72036141859982</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>17.49832298611917</v>
+        <v>17.49832298611731</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-9.214551492391077</v>
+        <v>-9.214551492389671</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>30.92331082867803</v>
+        <v>30.92331082867587</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>32.30944837242788</v>
+        <v>32.30944837242859</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>27.72143203711427</v>
+        <v>27.72143203711454</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>34.41088306641289</v>
+        <v>34.41088306641335</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>37.46309491003331</v>
+        <v>37.46309491003032</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-12.74070446536908</v>
+        <v>-12.74070446537038</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>21.37702305711722</v>
+        <v>21.37702305711649</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>22.90519260215746</v>
+        <v>22.90519260215625</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-3.691555562170301</v>
+        <v>-3.691555562171178</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>15.21262756362035</v>
+        <v>15.21262756361994</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>18.83823661633876</v>
+        <v>18.83823661633832</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-13.23374384886345</v>
+        <v>-13.23374384886763</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>13.18416952749541</v>
+        <v>13.18416952749453</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>17.44598096905649</v>
+        <v>17.44598096905467</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-7.866192487051926</v>
+        <v>-7.866192487049361</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.64113873795664</v>
+        <v>28.64113873795604</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-9.371600027015134</v>
+        <v>-9.371600027017124</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>7.646619135324723</v>
+        <v>7.64661913532521</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>14.43559592609155</v>
+        <v>14.43559592609053</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-11.6932056896124</v>
+        <v>-11.69320568961321</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>15.09592099282074</v>
+        <v>15.09592099281826</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>19.79144595396631</v>
+        <v>19.79144595396605</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-6.459643975026374</v>
+        <v>-6.459643975026822</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.33754828355488</v>
+        <v>28.33754828355226</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>34.29322690606804</v>
+        <v>34.29322690606445</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>17.46290094502238</v>
+        <v>17.46290094501782</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>27.68853085098217</v>
+        <v>27.6885308509805</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>34.33790571523942</v>
+        <v>34.33790571523667</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-8.27078710795854</v>
+        <v>-8.270787107963521</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>18.38125212643485</v>
+        <v>18.38125212643374</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.37959762359652</v>
+        <v>26.37959762359393</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-3.801315164245072</v>
+        <v>-3.801315164245437</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>12.96885498531569</v>
+        <v>12.96885498531659</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>19.8518095870207</v>
+        <v>19.85180958701951</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-9.180805838395422</v>
+        <v>-9.180805838399742</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>11.01646688326078</v>
+        <v>11.01646688325785</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>18.75762940729396</v>
+        <v>18.75762940729311</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-7.369788546523157</v>
+        <v>-7.36978854652358</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>23.56136945121004</v>
+        <v>23.56136945120427</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>18.93272633268036</v>
+        <v>18.9327263326825</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>10.25337862727228</v>
+        <v>10.25337862727237</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>19.40693682626717</v>
+        <v>19.40693682626401</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>21.92362166192124</v>
+        <v>21.92362166192045</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-2.470394877901946</v>
+        <v>-2.470394877904091</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.42685883656345</v>
+        <v>12.42685883656375</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>14.61275576953315</v>
+        <v>14.61275576953305</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>4.944197541599848</v>
+        <v>4.944197541602261</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>16.26396427363661</v>
+        <v>16.26396427363845</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>23.77145659096614</v>
+        <v>23.77145659096639</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-12.20673732432316</v>
+        <v>-12.20673732432526</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>1.727111693083479</v>
+        <v>1.727111693082225</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>9.08500484098067</v>
+        <v>9.085004840979938</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-5.854228015113584</v>
+        <v>-5.854228015114131</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>19.31640785418076</v>
+        <v>19.31640785418123</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.05992087827702</v>
+        <v>29.05992087827581</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>22.42717520956916</v>
+        <v>22.42717520956891</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.01882253903145</v>
+        <v>33.01882253903109</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>41.45757358595257</v>
+        <v>41.45757358595345</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-2.721000036906492</v>
+        <v>-2.721000036910084</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>17.83881505796602</v>
+        <v>17.83881505796438</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>27.22470232235649</v>
+        <v>27.22470232235516</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>34.36789870109619</v>
+        <v>34.36789870109482</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>35.81204965706318</v>
+        <v>35.81204965706473</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>41.89199042400016</v>
+        <v>41.89199042400093</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>42.97668655794406</v>
+        <v>42.97668655794263</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>5.548342093577972</v>
+        <v>5.548342093577341</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>38.53593389041092</v>
+        <v>38.53593389040866</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>36.82179013679334</v>
+        <v>36.82179013679232</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>7.272107727917334</v>
+        <v>7.272107727915866</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.75487536231741</v>
+        <v>28.75487536231605</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>31.29895312025403</v>
+        <v>31.29895312025256</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-7.223103489008714</v>
+        <v>-7.223103489010303</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>23.7631104515979</v>
+        <v>23.76311045159601</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>25.0277819826531</v>
+        <v>25.02778198265098</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>3.1024837240879</v>
+        <v>3.102483724089559</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>43.61750730775951</v>
+        <v>43.6175073077621</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>47.71698071457874</v>
+        <v>47.71698071457901</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>55.91666625790502</v>
+        <v>55.91666625790397</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>62.30122239253874</v>
+        <v>62.3012223925361</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>65.63765177995793</v>
+        <v>65.63765177995424</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>12.15507709457385</v>
+        <v>12.15507709457202</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>54.12833732481135</v>
+        <v>54.12833732481214</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>55.43191733474541</v>
+        <v>55.43191733474715</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>34.67716139242393</v>
+        <v>34.67716139242564</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>30.78877315670048</v>
+        <v>30.78877315670443</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>35.74747250089203</v>
+        <v>35.74747250089278</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>41.01900944452264</v>
+        <v>41.01900944452122</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-4.375052285083179</v>
+        <v>-4.375052285084095</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>31.79518927952532</v>
+        <v>31.79518927952661</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>34.57885163432699</v>
+        <v>34.57885163432898</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-1.039844420100025</v>
+        <v>-1.039844420099886</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>22.94241800972208</v>
+        <v>22.94241800972012</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.08916289081274</v>
+        <v>28.08916289081209</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-13.92003283562066</v>
+        <v>-13.92003283561795</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>20.744981992436</v>
+        <v>20.74498199243549</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>25.14575186988533</v>
+        <v>25.14575186988404</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-2.715424533129305</v>
+        <v>-2.7154245331288</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>40.91678046476329</v>
+        <v>40.91678046476254</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>47.7316051909566</v>
+        <v>47.73160519095711</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>51.72435050915344</v>
+        <v>51.72435050915374</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>57.97606040549611</v>
+        <v>57.97606040549762</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>64.9568983069782</v>
+        <v>64.95689830697714</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>2.719911612557041</v>
+        <v>2.719911612556526</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>50.14014025848577</v>
+        <v>50.14014025848644</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>55.28289039871262</v>
+        <v>55.28289039871453</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>32.89015557070287</v>
+        <v>32.89015557070121</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>16.99299017196093</v>
+        <v>16.99299017195658</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.44786536458081</v>
+        <v>29.44786536457906</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>37.29677611650381</v>
+        <v>37.29677611650421</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-2.71561652624208</v>
+        <v>-2.715616526239884</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>26.06199974777274</v>
+        <v>26.06199974777413</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>33.50861924107573</v>
+        <v>33.50861924107792</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>2.551051915756268</v>
+        <v>2.551051915756489</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>23.22228287317466</v>
+        <v>23.22228287317228</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>33.68998942046768</v>
+        <v>33.68998942046585</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-6.144768616225907</v>
+        <v>-6.144768616223985</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>20.25903281505339</v>
+        <v>20.25903281505127</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>31.25418405305183</v>
+        <v>31.25418405304924</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>1.925335094970784</v>
+        <v>1.925335094974237</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>38.33068541967003</v>
+        <v>38.3306854196685</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>51.30847251504659</v>
+        <v>51.30847251504592</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>39.46610041331994</v>
+        <v>39.46610041332117</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>54.86788937516618</v>
+        <v>54.86788937516615</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>67.86941429779654</v>
+        <v>67.86941429779928</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>5.774274411304106</v>
+        <v>5.774274411303182</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>43.68733761284971</v>
+        <v>43.6873376128522</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>57.45206775694498</v>
+        <v>57.45206775694621</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>20.54043970031135</v>
+        <v>20.54043970031089</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>25.81853836645918</v>
+        <v>25.8185383664627</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>30.61484144775841</v>
+        <v>30.61484144776043</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.81396789291151</v>
+        <v>10.8139678929112</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>23.69048014964343</v>
+        <v>23.69048014964442</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.26466561971636</v>
+        <v>25.26466561971736</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.59202918928991</v>
+        <v>13.59202918928983</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>35.56771682772271</v>
+        <v>35.56771682772269</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>38.68210506403264</v>
+        <v>38.68210506403053</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>26.59552878366974</v>
+        <v>26.59552878367314</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.1832995299309</v>
+        <v>30.1832995299293</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>32.09470406432062</v>
+        <v>32.09470406431947</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>16.50372864783776</v>
+        <v>16.50372864783568</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.32761119401318</v>
+        <v>24.32761119401232</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.65085227516197</v>
+        <v>29.65085227516152</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>18.21668931766849</v>
+        <v>18.21668931766562</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.92773370523538</v>
+        <v>25.92773370523611</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.41307170271596</v>
+        <v>29.41307170271816</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>5.625928994125509</v>
+        <v>5.625928994127278</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>14.90670677220995</v>
+        <v>14.90670677221401</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>17.81279343956823</v>
+        <v>17.81279343957157</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>5.21780590338347</v>
+        <v>5.217805903381709</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.99636134121723</v>
+        <v>25.99636134121575</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>19.59479407640267</v>
+        <v>19.59479407639998</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>31.89431775809451</v>
+        <v>31.89431775809196</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>32.72261144091549</v>
+        <v>32.72261144091576</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>11.72947357181284</v>
+        <v>11.72947357181451</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>36.26756848880687</v>
+        <v>36.26756848880965</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.83848748333339</v>
+        <v>33.83848748333694</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>15.11185611671542</v>
+        <v>15.11185611671589</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>47.79937005291752</v>
+        <v>47.79937005291602</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>47.19897058218315</v>
+        <v>47.19897058218298</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>47.68494866732258</v>
+        <v>47.68494866732249</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>51.25995304132379</v>
+        <v>51.25995304132428</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>50.7770162791286</v>
+        <v>50.77701627912991</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>21.89064231637169</v>
+        <v>21.89064231637243</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>44.76327473793954</v>
+        <v>44.76327473794137</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>44.71939604875622</v>
+        <v>44.71939604875583</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>18.83666688984656</v>
+        <v>18.83666688984859</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.94389613708022</v>
+        <v>33.94389613708053</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.26348160341247</v>
+        <v>35.26348160341151</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>9.08725960937246</v>
+        <v>9.087259609377398</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>31.4387082121998</v>
+        <v>31.43870821220181</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>32.22423893078562</v>
+        <v>32.2242389307853</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>12.65500618882795</v>
+        <v>12.6550061888299</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>45.3979744900485</v>
+        <v>45.39797449005223</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>11.32940224873604</v>
+        <v>11.32940224873579</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>24.66891092588315</v>
+        <v>24.66891092588388</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>27.4119752837954</v>
+        <v>27.41197528379605</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>7.482548292737064</v>
+        <v>7.482548292736368</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>33.64318532675341</v>
+        <v>33.64318532675455</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>33.69901643698081</v>
+        <v>33.69901643698203</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>11.09740738052287</v>
+        <v>11.09740738051951</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>45.12783583925243</v>
+        <v>45.12783583925229</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>46.69902796643524</v>
+        <v>46.69902796643589</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>44.59790922627309</v>
+        <v>44.59790922627188</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>47.83287169664381</v>
+        <v>47.83287169664391</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>49.93960073971668</v>
+        <v>49.93960073971685</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>12.40503104095546</v>
+        <v>12.40503104095735</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>37.9973215409143</v>
+        <v>37.99732154091583</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>40.89601196028035</v>
+        <v>40.89601196027944</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>11.54129082257776</v>
+        <v>11.54129082257755</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>27.73198014575522</v>
+        <v>27.73198014575637</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>32.08155496984638</v>
+        <v>32.08155496984608</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>3.764878864783391</v>
+        <v>3.764878864783434</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.01942591467583</v>
+        <v>28.01942591467594</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>32.57036444963573</v>
+        <v>32.57036444963152</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>8.230362903836182</v>
+        <v>8.230362903834276</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>42.53721885888893</v>
+        <v>42.53721885888908</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>11.65901080106852</v>
+        <v>11.65901080107156</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>23.04631135844642</v>
+        <v>23.04631135844673</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.85701747436703</v>
+        <v>29.85701747436743</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>11.64843161015587</v>
+        <v>11.64843161015718</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>32.85344628571598</v>
+        <v>32.8534462857151</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>37.10930976697335</v>
+        <v>37.10930976697468</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>14.62968442722981</v>
+        <v>14.62968442723241</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>44.17649771363789</v>
+        <v>44.17649771364214</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>49.66977876527362</v>
+        <v>49.66977876527369</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.9793988503684</v>
+        <v>34.97939885036806</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>42.22412579760166</v>
+        <v>42.2241257976019</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>47.22326001063957</v>
+        <v>47.2232600106396</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>16.2971881941527</v>
+        <v>16.29718819415249</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>35.69328046871469</v>
+        <v>35.69328046871482</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>44.1210000454689</v>
+        <v>44.12100004546828</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>10.34356815093672</v>
+        <v>10.3435681509338</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.14247382124212</v>
+        <v>25.14247382124304</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>32.08711466881376</v>
+        <v>32.08711466881407</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>5.789650286457576</v>
+        <v>5.789650286457917</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>24.70699955856585</v>
+        <v>24.7069995585667</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>32.02616245812122</v>
+        <v>32.0261624581229</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>6.595211769398237</v>
+        <v>6.595211769397489</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>36.12551306711353</v>
+        <v>36.12551306711411</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.83532969282686</v>
+        <v>30.8353296928247</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>19.00063094859495</v>
+        <v>19.00063094859422</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.92724152444967</v>
+        <v>27.9272415244488</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.46720955639572</v>
+        <v>28.46720955639477</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>10.23881306360428</v>
+        <v>10.2388130636079</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>23.5601280509245</v>
+        <v>23.56012805092672</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.72108183091859</v>
+        <v>25.7210818309218</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>22.50270356325951</v>
+        <v>22.50270356325852</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>32.69460952174744</v>
+        <v>32.6946095217492</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>39.6314281133043</v>
+        <v>39.63142811330411</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>5.206597181170512</v>
+        <v>5.206597181170093</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>18.79856510160615</v>
+        <v>18.79856510160678</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>24.98115054295322</v>
+        <v>24.98115054295438</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>10.52251429576343</v>
+        <v>10.52251429576614</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.19065328988322</v>
+        <v>35.19065328988221</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>43.66009431540129</v>
+        <v>43.66009431540085</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>34.80804378184333</v>
+        <v>34.80804378184413</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>44.65266219405828</v>
+        <v>44.65266219405644</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>50.80845603973402</v>
+        <v>50.80845603973277</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>13.2570612641314</v>
+        <v>13.25706126413095</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>32.80601839524856</v>
+        <v>32.80601839524851</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>41.12556696369017</v>
+        <v>41.12556696369002</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>48.21777344716872</v>
+        <v>48.21777344717222</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>47.10341532984508</v>
+        <v>47.10341532984175</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>52.57123236818671</v>
+        <v>52.57123236818566</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>52.15209320070456</v>
+        <v>52.15209320070296</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>22.11917583913089</v>
+        <v>22.11917583913197</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>52.15990664410276</v>
+        <v>52.15990664410512</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>51.21100457481108</v>
+        <v>51.2110045748135</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>27.76261836043663</v>
+        <v>27.76261836043606</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>47.4524382660681</v>
+        <v>47.45243826606924</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>49.90196086495715</v>
+        <v>49.90196086495773</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>14.87383896339774</v>
+        <v>14.8738389634002</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>44.75890264284065</v>
+        <v>44.75890264283926</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>45.30172652186567</v>
+        <v>45.30172652186511</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>24.22219321866605</v>
+        <v>24.22219321866545</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>63.53061808005347</v>
+        <v>63.53061808005205</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>66.77002266443566</v>
+        <v>66.77002266443597</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>73.52038451204035</v>
+        <v>73.52038451204032</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>79.14029884980535</v>
+        <v>79.1402988498053</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>80.4607736406408</v>
+        <v>80.4607736406393</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>34.67933202173156</v>
+        <v>34.67933202173161</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>74.53668932964257</v>
+        <v>74.53668932964379</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>75.41151063759835</v>
+        <v>75.41151063759786</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>48.66011632474098</v>
+        <v>48.66011632474005</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>42.5460594424586</v>
+        <v>42.54605944245943</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>46.89380911064634</v>
+        <v>46.89380911064818</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>50.72177826476339</v>
+        <v>50.72177826476205</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>12.73985082793573</v>
+        <v>12.73985082793316</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>45.88252032376647</v>
+        <v>45.88252032376606</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>49.51154454343281</v>
+        <v>49.51154454343438</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>19.74199392299341</v>
+        <v>19.74199392299331</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>41.96128648959561</v>
+        <v>41.96128648959613</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>47.03739846658132</v>
+        <v>47.03739846658186</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>9.01282663376513</v>
+        <v>9.01282663376978</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>42.60920999138344</v>
+        <v>42.60920999138268</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>46.29646042389437</v>
+        <v>46.29646042389381</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>19.31560541933539</v>
+        <v>19.31560541933307</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>61.76448112330603</v>
+        <v>61.76448112330516</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>67.73625717411768</v>
+        <v>67.73625717411643</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>70.55695039577547</v>
+        <v>70.55695039577914</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>76.1774317040809</v>
+        <v>76.1774317040823</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>81.14712087152965</v>
+        <v>81.14712087153215</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>26.50454891060538</v>
+        <v>26.50454891060652</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>71.85459113860787</v>
+        <v>71.85459113861083</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>76.60045949368224</v>
+        <v>76.6004594936861</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>44.9004299666621</v>
+        <v>44.9004299666651</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>26.3361709630378</v>
+        <v>26.33617096303876</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>38.54052858823972</v>
+        <v>38.54052858824214</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>44.25444505492609</v>
+        <v>44.25444505492705</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>10.90989903020652</v>
+        <v>10.90989903020723</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>37.8771073846803</v>
+        <v>37.87710738468157</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>45.20844445611137</v>
+        <v>45.20844445611146</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>21.16021724998423</v>
+        <v>21.16021724998407</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>40.65347590386938</v>
+        <v>40.65347590387015</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>50.45445342705299</v>
+        <v>50.45445342705256</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>13.21816262480727</v>
+        <v>13.21816262480685</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.2454373093471</v>
+        <v>39.24543730934497</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>48.89935025326552</v>
+        <v>48.89935025326429</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>20.26730782700846</v>
+        <v>20.26730782700881</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>56.12635437669618</v>
+        <v>56.12635437669708</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>67.68806696414281</v>
+        <v>67.68806696414134</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>54.06728590094687</v>
+        <v>54.06728590094731</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>68.84940634631559</v>
+        <v>68.84940634631526</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>79.32288926325401</v>
+        <v>79.32288926325528</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>24.18746309204938</v>
+        <v>24.18746309204825</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>61.03017151228027</v>
+        <v>61.03017151227854</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>73.543118645839</v>
+        <v>73.54311864583812</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>17.29492103598927</v>
+        <v>17.29492103598991</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>24.44832170217006</v>
+        <v>24.44832170217185</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>32.99983552411567</v>
+        <v>32.99983552411481</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>5.13268002957671</v>
+        <v>5.13268002957513</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.13176350235906</v>
+        <v>23.1317635023616</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.55823378848176</v>
+        <v>29.5582337884828</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>11.92899036775343</v>
+        <v>11.92899036775269</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>38.46270721686983</v>
+        <v>38.46270721686841</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>46.39663023256882</v>
+        <v>46.39663023257403</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.96017961665416</v>
+        <v>29.96017961665585</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>37.03172271093282</v>
+        <v>37.03172271093337</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>42.93271435537311</v>
+        <v>42.93271435537193</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>14.1545966069488</v>
+        <v>14.15459660694467</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>22.90891685197819</v>
+        <v>22.90891685197761</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>34.79296060009013</v>
+        <v>34.79296060009064</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>21.02266750191126</v>
+        <v>21.02266750191432</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>32.09778429841826</v>
+        <v>32.09778429841836</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>40.36586823469908</v>
+        <v>40.3658682347006</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>2.836733518203467</v>
+        <v>2.83673351820137</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>18.14701793476841</v>
+        <v>18.14701793476683</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>27.56771442663673</v>
+        <v>27.56771442663279</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>4.258388207302161</v>
+        <v>4.258388207305552</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>30.88698977328928</v>
+        <v>30.8869897732921</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>22.40602833662584</v>
+        <v>22.40602833662791</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>39.51035233526234</v>
+        <v>39.51035233526541</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>43.66547214771924</v>
+        <v>43.6654721477211</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>10.85075393378283</v>
+        <v>10.85075393378336</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>44.60478840380023</v>
+        <v>44.60478840380024</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>46.89546047462592</v>
+        <v>46.89546047462896</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>20.4942657354849</v>
+        <v>20.49426573548773</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>61.45139096682445</v>
+        <v>61.4513909668247</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>65.48365517465558</v>
+        <v>65.48365517465953</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>62.06140981618234</v>
+        <v>62.06140981617942</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>71.33961236627437</v>
+        <v>71.33961236627108</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>74.34145049884837</v>
+        <v>74.34145049884515</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>26.11267196844075</v>
+        <v>26.11267196844265</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>55.19964825614792</v>
+        <v>55.19964825614731</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>61.26024966139724</v>
+        <v>61.26024966139492</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>25.14537259797121</v>
+        <v>25.1453725979698</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>46.42664056600732</v>
+        <v>46.42664056600772</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>52.08924054306365</v>
+        <v>52.08924054306168</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>9.006269863790804</v>
+        <v>9.006269863791239</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>41.37007802681913</v>
+        <v>41.37007802682071</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>48.59638904286669</v>
+        <v>48.59638904286869</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>16.13985228691448</v>
+        <v>16.13985228691323</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>58.36231318237635</v>
+        <v>58.36231318237585</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>16.33483891816634</v>
+        <v>16.33483891816557</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>35.42799290806826</v>
+        <v>35.42799290806856</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>41.76774084069663</v>
+        <v>41.76774084069862</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>9.351642522444342</v>
+        <v>9.35164252244507</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>45.85502974729465</v>
+        <v>45.85502974729395</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>51.11624703420832</v>
+        <v>51.11624703420674</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>19.76250338120109</v>
+        <v>19.762503381201</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>63.08654796547552</v>
+        <v>63.08654796547744</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>69.69248386370342</v>
+        <v>69.69248386370668</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>61.86263398961077</v>
+        <v>61.86263398960484</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>71.19732279759664</v>
+        <v>71.19732279759434</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>77.67224630351244</v>
+        <v>77.67224630351065</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>18.26834056355965</v>
+        <v>18.26834056356143</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>51.6395095587529</v>
+        <v>51.63950955875147</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>61.31789625110466</v>
+        <v>61.31789625110739</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>19.54864343895083</v>
+        <v>19.54864343894994</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>42.73012836860274</v>
+        <v>42.73012836860147</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>51.7859118186274</v>
+        <v>51.78591181862683</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>6.077902252201611</v>
+        <v>6.077902252204508</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>41.34803670984336</v>
+        <v>41.34803670984501</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>52.95076197656182</v>
+        <v>52.95076197655892</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>14.53717161775188</v>
+        <v>14.53717161775068</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>59.23322720888535</v>
+        <v>59.23322720888484</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>11.15320567043139</v>
+        <v>11.15320567043238</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>26.22913709768192</v>
+        <v>26.22913709768004</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>37.60066359651946</v>
+        <v>37.60066359651734</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>9.604472400684243</v>
+        <v>9.604472400684241</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>38.21748429909535</v>
+        <v>38.21748429909709</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>48.59244652047326</v>
+        <v>48.59244652047537</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>17.60314704359876</v>
+        <v>17.60314704359971</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>53.76907387635951</v>
+        <v>53.76907387636021</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>65.17083101070472</v>
+        <v>65.17083101070745</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>43.44271345241944</v>
+        <v>43.44271345242247</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>55.33862894470844</v>
+        <v>55.33862894471075</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>66.09779135483083</v>
+        <v>66.09779135483029</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>17.12686061410726</v>
+        <v>17.12686061410826</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>40.28877513085224</v>
+        <v>40.28877513085234</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>57.061104843225</v>
+        <v>57.06110484322609</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>16.67547186836063</v>
+        <v>16.67547186836014</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>36.66482928765171</v>
+        <v>36.66482928764874</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>49.41982992032375</v>
+        <v>49.41982992032317</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>7.844787700969913</v>
+        <v>7.844787700972796</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>35.11294120253315</v>
+        <v>35.11294120253368</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>50.51484457426832</v>
+        <v>50.51484457426851</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>11.34312546371945</v>
+        <v>11.34312546371981</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>48.82467876662284</v>
+        <v>48.82467876662241</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>42.08140221683367</v>
+        <v>42.08140221683895</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.70320728965588</v>
+        <v>29.70320728965862</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>43.20363115143198</v>
+        <v>43.20363115143461</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>50.30777796408137</v>
+        <v>50.30777796408669</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>14.31482192329209</v>
+        <v>14.31482192329508</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>33.38138811353502</v>
+        <v>33.38138811353606</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>43.33013718884294</v>
+        <v>43.33013718884338</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>18.03461989693178</v>
+        <v>18.03461989693001</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.33729424236564</v>
+        <v>31.33729424236467</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>42.19448865348024</v>
+        <v>42.19448865348001</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-1.632485500973157</v>
+        <v>-1.632485500975807</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>17.9454342185693</v>
+        <v>17.94543421856475</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.52527189245717</v>
+        <v>29.52527189245484</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>5.829484972756621</v>
+        <v>5.829484972753736</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>36.43086821795171</v>
+        <v>36.43086821795095</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>50.39162558293052</v>
+        <v>50.391625582929</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>42.13968344098544</v>
+        <v>42.13968344098714</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>57.56831351644885</v>
+        <v>57.56831351645095</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>65.71355392581869</v>
+        <v>65.71355392582085</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>9.942260855295018</v>
+        <v>9.942260855297775</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>35.71320165148795</v>
+        <v>35.71320165149097</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>51.14389232553436</v>
+        <v>51.14389232553385</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>67.40204008805338</v>
+        <v>67.40204008805026</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>65.80545813578949</v>
+        <v>65.80545813578708</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>77.29225549751675</v>
+        <v>77.29225549751425</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>82.671188309443</v>
+        <v>82.6711883094426</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>31.41160488723708</v>
+        <v>31.41160488723803</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>72.3827506316855</v>
+        <v>72.38275063168157</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>78.76647843459253</v>
+        <v>78.76647843459199</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.3991630156163</v>
+        <v>25.399163015614</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>50.57005166900186</v>
+        <v>50.57005166900213</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>56.99535819549627</v>
+        <v>56.99535819549521</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>10.2401542517932</v>
+        <v>10.2401542517904</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>49.5559691783166</v>
+        <v>49.55596917831443</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>55.98016591457876</v>
+        <v>55.98016591457613</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>23.31389085854528</v>
+        <v>23.31389085854495</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>71.7312024313144</v>
+        <v>71.73120243131301</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>80.77491742150261</v>
+        <v>80.77491742150268</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>89.41375543873203</v>
+        <v>89.41375543873275</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>100.5913015279434</v>
+        <v>100.5913015279424</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>103.2460874051998</v>
+        <v>103.2460874052026</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>37.47626305133169</v>
+        <v>37.47626305132883</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>88.13527803260612</v>
+        <v>88.135278032606</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>96.39137720822205</v>
+        <v>96.39137720822551</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>72.08529022705005</v>
+        <v>72.08529022705048</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>63.19279540576387</v>
+        <v>63.19279540576028</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>73.70235889860766</v>
+        <v>73.70235889860771</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>84.31839612919907</v>
+        <v>84.31839612919771</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>22.91380149929648</v>
+        <v>22.91380149929403</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>68.34396813206024</v>
+        <v>68.34396813205875</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>80.13969400846653</v>
+        <v>80.13969400846509</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>18.32305476083937</v>
+        <v>18.32305476083726</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>46.82150036534816</v>
+        <v>46.82150036534752</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>56.24283804413645</v>
+        <v>56.2428380441354</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>6.46116647091154</v>
+        <v>6.461166470913007</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>50.45782653260199</v>
+        <v>50.45782653259797</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>60.64238808443847</v>
+        <v>60.6423880844367</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>20.75761853795739</v>
+        <v>20.75761853795971</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>73.19759710361946</v>
+        <v>73.1975971036196</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>85.47535873874176</v>
+        <v>85.47535873874283</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>87.91979218232667</v>
+        <v>87.91979218232628</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>99.08298229420569</v>
+        <v>99.08298229420944</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>106.2559705146172</v>
+        <v>106.255970514619</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.4522231764183</v>
+        <v>29.45222317641776</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>86.92519093652223</v>
+        <v>86.9251909365216</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>99.8671918655904</v>
+        <v>99.86719186559017</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>65.30749220209231</v>
+        <v>65.30749220209307</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>42.86565510750385</v>
+        <v>42.86565510750488</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>60.62275398280404</v>
+        <v>60.62275398280458</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>75.00195029431842</v>
+        <v>75.00195029432041</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>19.13086797668712</v>
+        <v>19.13086797668802</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>54.79966590571107</v>
+        <v>54.79966590571011</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>72.05636435616165</v>
+        <v>72.056364356161</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>19.2625154797926</v>
+        <v>19.26251547979167</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>43.66831858986351</v>
+        <v>43.66831858986349</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>58.49844923223613</v>
+        <v>58.49844923223885</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>10.81382852295445</v>
+        <v>10.81382852295599</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>45.10722748797365</v>
+        <v>45.10722748797306</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>61.81316615128712</v>
+        <v>61.81316615128402</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>20.72942719789912</v>
+        <v>20.72942719789678</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>64.59237025469301</v>
+        <v>64.59237025469309</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>83.06490451955015</v>
+        <v>83.06490451954707</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>66.48501403328976</v>
+        <v>66.48501403328999</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>87.58234260447503</v>
+        <v>87.58234260447801</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>102.0060949111759</v>
+        <v>102.0060949111763</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>23.6509243668649</v>
+        <v>23.6509243668624</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>69.6589782795858</v>
+        <v>69.65897827958671</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>91.52261482919214</v>
+        <v>91.52261482919185</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test2/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.59</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.577</v>
+        <v>15.107</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.222</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.774</v>
+        <v>15.991</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.865</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.942</v>
+        <v>5.438</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.83611344716337</v>
+        <v>12.82755876125499</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7.723620845801833</v>
+        <v>9.72000058401435</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>13.19011605332804</v>
+        <v>15.54207829720169</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.356193141366102</v>
+        <v>2.642644817409252</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5.850574626539402</v>
+        <v>10.10087110874102</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>9.641595943147017</v>
+        <v>11.04831904652582</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.031364350085376</v>
+        <v>6.250341784693145</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>14.30228085491283</v>
+        <v>20.62974345466735</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>19.73399659133057</v>
+        <v>21.70545679324731</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8.936342679387744</v>
+        <v>5.503012868228371</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7.431785123060626</v>
+        <v>10.30668147009473</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>12.35635316782679</v>
+        <v>11.06659743690452</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>7.508660406091179</v>
+        <v>14.9774744496427</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1.602101728879575</v>
+        <v>6.81541750292557</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.748068644100634</v>
+        <v>14.17709959429896</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.992121096190232</v>
+        <v>11.66071133933125</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9.937788831822672</v>
+        <v>16.82208035663336</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>16.36759480974099</v>
+        <v>22.58604227672885</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2.502653358903331</v>
+        <v>9.159968146418031</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1.178512507818358</v>
+        <v>6.004275144744682</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6.736935130104015</v>
+        <v>9.419074618636049</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-9.553233036894518</v>
+        <v>-0.5281800575188491</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4.213951493926706</v>
+        <v>8.773229523775841</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>14.63621976215248</v>
+        <v>16.42617615717261</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>19.0106163175361</v>
+        <v>20.40024775413515</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>21.04034683752437</v>
+        <v>22.53268440467741</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.282876931088957</v>
+        <v>2.515208989011214</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.66675144772835</v>
+        <v>24.5199386698611</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22.48487564246707</v>
+        <v>27.01205824950719</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.453248140548906</v>
+        <v>5.367327480934655</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.49468000690509</v>
+        <v>33.37120114392226</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.06436088408265</v>
+        <v>33.49988874906948</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.06788090349069</v>
+        <v>32.68887740643689</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>34.57618979031272</v>
+        <v>41.25528925271541</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>37.91860564249345</v>
+        <v>41.52729427974094</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>14.37553936454349</v>
+        <v>21.94629536209991</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>23.03811136989778</v>
+        <v>31.80652920598517</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>26.16357384075318</v>
+        <v>35.24528786692766</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>9.982281689562535</v>
+        <v>13.14459706759192</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>18.53179189961852</v>
+        <v>22.33240092301557</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>23.38190510785861</v>
+        <v>25.24356448723177</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-1.756660164196703</v>
+        <v>6.580843905595131</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>14.57208961375509</v>
+        <v>18.95126537028073</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>21.541088782979</v>
+        <v>28.64444706079252</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>24.05166318751642</v>
+        <v>29.19055338312467</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.247520565752602</v>
+        <v>11.61750976855353</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>15.52452188443364</v>
+        <v>19.2552246830577</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>19.83036230541754</v>
+        <v>22.95906956248677</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.880138014648374</v>
+        <v>1.772988823111632</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>22.91181716637455</v>
+        <v>24.91036262146345</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.80400709487915</v>
+        <v>30.44983508137814</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4.993244865359642</v>
+        <v>7.32636807393159</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>33.31998251537073</v>
+        <v>36.79696617464062</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>38.55587349096475</v>
+        <v>39.81604485339426</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.98945518605039</v>
+        <v>36.17417467412571</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.46413341619119</v>
+        <v>40.32517177987317</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>41.35620665297306</v>
+        <v>44.71820996310549</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6.75094836278406</v>
+        <v>14.28817968601197</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>19.51236788757931</v>
+        <v>26.761553468277</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>26.41931974746225</v>
+        <v>33.1204272757962</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4.685878611724242</v>
+        <v>10.10003331449562</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>15.00142297243339</v>
+        <v>19.22453593208855</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>23.32471231871901</v>
+        <v>24.07411664310923</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-4.933819633699521</v>
+        <v>4.69468090356888</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>14.13543569970199</v>
+        <v>14.75699067112031</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.57719133017005</v>
+        <v>30.80774661402898</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-5.188835360502765</v>
+        <v>2.92475628574363</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>24.69735599096603</v>
+        <v>27.85569307355018</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4.946034405765218</v>
+        <v>4.532373670542508</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>8.068839955231194</v>
+        <v>12.90919370439756</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>16.46250797753591</v>
+        <v>19.72566934736307</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5.111028878699699</v>
+        <v>0.4352134332516187</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>18.35743020902162</v>
+        <v>22.96083831946322</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.25005343523649</v>
+        <v>28.9658503924101</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4.895767188590167</v>
+        <v>0.8312424649302983</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>27.03374251124066</v>
+        <v>29.53822069147929</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.06507151652812</v>
+        <v>35.4685539479538</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>19.94396415194213</v>
+        <v>23.76410839103878</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>22.67484380901544</v>
+        <v>27.71230297234386</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>32.64091193666211</v>
+        <v>32.28985701483178</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>8.706867839920243</v>
+        <v>7.838109376538162</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.82772479739439</v>
+        <v>16.87384526633838</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25.27910912847295</v>
+        <v>28.00490444950484</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4.400439448374883</v>
+        <v>6.085882041406855</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>12.49896639865186</v>
+        <v>18.79898330059951</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>23.54644571267993</v>
+        <v>25.89601119980714</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.4661361717671326</v>
+        <v>5.237153025991521</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>12.79895995378118</v>
+        <v>15.66618231085256</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>26.87402023413683</v>
+        <v>29.1738185297245</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-4.624963170409842</v>
+        <v>-0.5137852312397868</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>19.15311879574936</v>
+        <v>24.54216408582719</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>13.9050639535939</v>
+        <v>13.87250550690598</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>4.070318294814671</v>
+        <v>7.492245621670584</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>9.633732317880265</v>
+        <v>27.2017403960043</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>16.39911236222539</v>
+        <v>29.74319362622693</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1.290947501387123</v>
+        <v>2.168602218299856</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3.056285145865587</v>
+        <v>5.346609114110191</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>10.06963681301774</v>
+        <v>9.896514237079305</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>10.93945703991768</v>
+        <v>13.29511763495005</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>13.76962261218123</v>
+        <v>16.28765659063326</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>23.17240857285661</v>
+        <v>26.50707303222428</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-6.9584093208803</v>
+        <v>9.317389204811148</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-0.4489131251004039</v>
+        <v>6.787516207574857</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>10.11347419950522</v>
+        <v>10.12587261966684</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-5.895820349456113</v>
+        <v>0.5883811608126912</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>12.6965572589425</v>
+        <v>13.82907860083036</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>25.59268876482984</v>
+        <v>26.49356917972943</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>19.55258386175666</v>
+        <v>14.07309465790511</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>27.19165461378154</v>
+        <v>33.7689245969779</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>36.12411711608912</v>
+        <v>39.46675370515341</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>-1.246995609061152</v>
+        <v>2.719223339745824</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>7.934594981367347</v>
+        <v>5.909902362470699</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>21.37901546052846</v>
+        <v>15.28785186539862</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>32.69773115597093</v>
+        <v>40.29648694453729</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>32.73455863519636</v>
+        <v>33.42863915743527</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>35.08360414001493</v>
+        <v>45.1083897234228</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>41.48565497161074</v>
+        <v>50.44599597884092</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>11.95812454158185</v>
+        <v>16.29058587953912</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>32.85086553701618</v>
+        <v>40.75479860643728</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>38.00043169130822</v>
+        <v>41.77554177570873</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>16.99679144420212</v>
+        <v>20.99612521309133</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>30.08769368087085</v>
+        <v>31.05007173940026</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>36.12974669090363</v>
+        <v>38.30637794899028</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2.739556488313003</v>
+        <v>10.61036837074865</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>26.92774986345452</v>
+        <v>30.4114689119486</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.64236970945837</v>
+        <v>37.20562620805484</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>9.336307224111458</v>
+        <v>8.248236135328872</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>43.9249966467013</v>
+        <v>47.33408955461022</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>53.06686887016678</v>
+        <v>59.67038853683231</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>63.43941453979068</v>
+        <v>62.26441311340507</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>65.63165174775496</v>
+        <v>70.99310871112766</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>70.43989640889886</v>
+        <v>78.29096176284466</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>23.61025807647827</v>
+        <v>31.02222074786331</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>54.90618276292714</v>
+        <v>61.26017042523166</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>62.91028839158324</v>
+        <v>66.5608802648147</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>37.24096593863187</v>
+        <v>45.56337612231668</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.99077560971091</v>
+        <v>27.87638892266682</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>31.22873470085325</v>
+        <v>32.9134808572995</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>42.9251665151252</v>
+        <v>46.79066526299995</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>3.4422499062778</v>
+        <v>11.80670305918954</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.52159441422887</v>
+        <v>36.6136846089598</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>39.23621353403772</v>
+        <v>41.89979712695713</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>10.35768362339411</v>
+        <v>14.86291920799521</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.59008391511222</v>
+        <v>26.87346017541848</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.75515046531424</v>
+        <v>36.63941134169389</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-1.053847864719732</v>
+        <v>8.686190240880746</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>27.58564436443722</v>
+        <v>29.78420647201602</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.21120210545503</v>
+        <v>42.1738244557809</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>6.921203763163174</v>
+        <v>7.722630413984293</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>45.33841670134724</v>
+        <v>48.02376195676443</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>57.84804523873559</v>
+        <v>65.71203470590503</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>62.03014345022702</v>
+        <v>59.49858221209416</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>64.02656471279175</v>
+        <v>65.38489379157643</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>73.44656371430125</v>
+        <v>79.21863687148614</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>15.72187479776794</v>
+        <v>22.43912562383441</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>53.48177800152005</v>
+        <v>54.68624177137072</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>66.38272922149429</v>
+        <v>67.2446008631601</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>34.28528151542366</v>
+        <v>40.04995917371978</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>14.51950415516961</v>
+        <v>14.28739255708063</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>23.70907930554747</v>
+        <v>20.99585020245421</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.92915636903862</v>
+        <v>32.80412706564858</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>4.051175287438683</v>
+        <v>6.077326738678362</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>21.12124134797564</v>
+        <v>31.64472587774123</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>35.69134234675108</v>
+        <v>38.39615021797956</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>11.483762196429</v>
+        <v>12.58428905535282</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>24.61914624229021</v>
+        <v>28.59185264416951</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>38.20688076844567</v>
+        <v>42.87311389186684</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>4.022240726480007</v>
+        <v>9.69596988901103</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>24.25669746143775</v>
+        <v>29.02436786166301</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40.21993811626612</v>
+        <v>43.85734638495992</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>7.501673322448909</v>
+        <v>4.624244876654199</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>38.47726947190034</v>
+        <v>41.94026139168876</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>56.1242211656133</v>
+        <v>64.50601153819836</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>41.85937654439474</v>
+        <v>46.64690047752229</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>54.49719282041728</v>
+        <v>56.51254958487512</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>69.98476554386232</v>
+        <v>76.7808958858222</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>10.94627588210617</v>
+        <v>14.07422181571044</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>39.0075713537821</v>
+        <v>44.94215615952551</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>59.25236960064113</v>
+        <v>64.35207659317516</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-11.91193067589294</v>
+        <v>6.062417879196158</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-7.164313983792557</v>
+        <v>18.90145124245572</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-0.02898132171898027</v>
+        <v>29.7227617290904</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-19.76522896096587</v>
+        <v>4.656280658353396</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-5.428720459827161</v>
+        <v>29.31292335088823</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-1.64357884704285</v>
+        <v>35.03719082312525</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-16.4692100447232</v>
+        <v>13.20147162103882</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6.967622920388356</v>
+        <v>50.10995069577793</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>12.27274946106112</v>
+        <v>56.10015391860618</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-0.878898577776841</v>
+        <v>25.47627166414913</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>2.301769179662028</v>
+        <v>29.6271679575253</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>6.670574916032987</v>
+        <v>33.5578050605295</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-14.75413289770516</v>
+        <v>16.04760018452517</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-9.864650139164155</v>
+        <v>22.25939216481027</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-0.4973952823362389</v>
+        <v>39.53683751405187</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-6.2860979723499</v>
+        <v>9.948187018237515</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-0.1379381379546842</v>
+        <v>27.36431471792601</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>4.430799517962313</v>
+        <v>27.07324620958449</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-20.13384125205828</v>
+        <v>0.4343568263077842</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-10.95150846319857</v>
+        <v>17.91666613631541</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-7.077626720536987</v>
+        <v>16.97960800668501</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-20.36381855279717</v>
+        <v>4.243826304442962</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.6932784033404964</v>
+        <v>33.43825480565198</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-12.80740326651156</v>
+        <v>12.87640361359014</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-0.7484253356981228</v>
+        <v>31.56086065992826</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1.624607052708129</v>
+        <v>37.84122711530335</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-21.43514041857539</v>
+        <v>7.014414941798613</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>5.192251900339736</v>
+        <v>43.49012871870737</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>4.195864528833644</v>
+        <v>47.57978717523999</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-16.73603647750064</v>
+        <v>14.18609596299429</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>18.00446193557878</v>
+        <v>61.69624492677644</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>18.87963745564008</v>
+        <v>64.85268464491354</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>19.74524008894225</v>
+        <v>54.89614842816134</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>22.57492146894516</v>
+        <v>59.48853830961941</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>23.66815261323407</v>
+        <v>60.68118421750805</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-11.47724329330374</v>
+        <v>18.40123811676496</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>9.106077399217027</v>
+        <v>44.70156131853548</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>11.89358371016611</v>
+        <v>52.26221685515102</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>-8.065247587529619</v>
+        <v>21.46506594986123</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>5.484854220906392</v>
+        <v>39.25158172564672</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>7.001199581479442</v>
+        <v>36.56902452349856</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>-22.07253697291222</v>
+        <v>3.67598907700631</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.5082461906266893</v>
+        <v>32.71305424645033</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1.387394576168298</v>
+        <v>30.99918459534689</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-17.94607588416341</v>
+        <v>13.49036863934311</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>15.39922607222333</v>
+        <v>54.99906416890236</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-20.42066716811264</v>
+        <v>5.852704201591113</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-6.927870594079504</v>
+        <v>25.87791834981241</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-2.801242518169101</v>
+        <v>33.05942558736538</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-25.07245741584165</v>
+        <v>3.632180925241688</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>3.632644912801299</v>
+        <v>39.34140621896251</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>5.003207214115456</v>
+        <v>45.71506472880542</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-19.91680934571252</v>
+        <v>11.42271104636062</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>16.57650860620815</v>
+        <v>58.10376077834655</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>19.51009815216108</v>
+        <v>63.28145468202848</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>17.40004530375049</v>
+        <v>58.7162345990433</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>20.00287559232658</v>
+        <v>60.46133106068348</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>23.70373535595759</v>
+        <v>63.33283409723337</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-20.90288784670327</v>
+        <v>6.519595165432687</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>3.059434898545526</v>
+        <v>34.2094028469558</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>8.623246158535663</v>
+        <v>42.41859307989588</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-14.62377125783456</v>
+        <v>18.64287499733313</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.3777520156107599</v>
+        <v>35.15308500297755</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>4.728578276208756</v>
+        <v>34.67084887067072</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-26.71075242682994</v>
+        <v>2.130782474307701</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-1.78192923405544</v>
+        <v>28.41827453883212</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>2.704480861520167</v>
+        <v>30.96512973396226</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-21.51954124445349</v>
+        <v>12.84928153801931</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>13.78722293256645</v>
+        <v>51.3233755769141</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-21.67777275434467</v>
+        <v>0.6279323569281985</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-10.11467142117567</v>
+        <v>21.57437050950844</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-1.023245460159153</v>
+        <v>32.53759026809492</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-20.09510229196924</v>
+        <v>4.214513751922841</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3.477462684095942</v>
+        <v>39.07178344286091</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>9.985756714405989</v>
+        <v>47.70635692380021</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-16.23492255249595</v>
+        <v>9.938394482536374</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>15.59043135139477</v>
+        <v>56.74785525103266</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>23.30131380989359</v>
+        <v>64.81485625069236</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>6.992882594032983</v>
+        <v>51.86053239648233</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>14.15062049824307</v>
+        <v>55.65090543923623</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>21.8444216144569</v>
+        <v>59.69027306530565</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-16.5134595554653</v>
+        <v>4.561293974072836</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1.017003021488314</v>
+        <v>27.82091857419459</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>13.58455275255688</v>
+        <v>43.33485782647494</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-14.61433967297589</v>
+        <v>10.75868160526202</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-0.7053336516426612</v>
+        <v>31.66695758145945</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>7.203866345333008</v>
+        <v>33.0869945119858</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-20.73400004258983</v>
+        <v>0.06164679037328824</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-1.028100539481585</v>
+        <v>26.57184653326239</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>7.239331357458699</v>
+        <v>30.26997538045572</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-19.46994996934755</v>
+        <v>7.372900106414768</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>11.1394273708534</v>
+        <v>45.89076045263025</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>6.651384271604458</v>
+        <v>33.39705725345833</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.630208967540046</v>
+        <v>29.0697023042696</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>7.943518377161016</v>
+        <v>44.79357143478011</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>10.84643066939815</v>
+        <v>44.79235749596833</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-10.50699105280376</v>
+        <v>19.84648773206912</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-0.8415399844448466</v>
+        <v>35.1614325893687</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>3.126619957517555</v>
+        <v>37.54900904284639</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-7.022187752970289</v>
+        <v>15.88783436500281</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>2.652148596959069</v>
+        <v>27.57581350308915</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>11.37628793807931</v>
+        <v>37.49516217291372</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-23.76401628648543</v>
+        <v>1.160607025413814</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-8.948425908869226</v>
+        <v>17.44214707636345</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-1.021924436556233</v>
+        <v>25.39566135578619</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-17.25965491691004</v>
+        <v>10.28935842633864</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>8.896461728972085</v>
+        <v>39.47272391113009</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>19.23442699905072</v>
+        <v>54.74212827541961</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>12.99970237764924</v>
+        <v>34.32608732314619</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>23.13906203327538</v>
+        <v>52.40354799397291</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>30.09406953025428</v>
+        <v>56.353306968523</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-13.77328591180364</v>
+        <v>18.53235563473312</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>4.664884803097131</v>
+        <v>36.79391746781536</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>15.67770412311815</v>
+        <v>47.77977056339522</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>18.54584944254485</v>
+        <v>55.99708052651656</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>24.5419653979373</v>
+        <v>57.32898418541217</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>27.35225654934357</v>
+        <v>65.06216752468843</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.36451812467812</v>
+        <v>62.70500197482353</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-3.663657120425086</v>
+        <v>31.36356524300052</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>22.9473693856799</v>
+        <v>62.25915190059492</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>22.4467312286347</v>
+        <v>56.39140284938877</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-7.078177591944389</v>
+        <v>21.66959666420905</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-22.11821840467528</v>
+        <v>3.484481781736786</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>9.282725716158328</v>
+        <v>37.82378918790354</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>11.04828715461982</v>
+        <v>38.76157688648523</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-11.4781272473248</v>
+        <v>12.46152974775262</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.61470021640964</v>
+        <v>61.5748560421151</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>34.22844647403205</v>
+        <v>68.11049664991587</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>44.82680727636793</v>
+        <v>66.22661183852269</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>49.23561211722956</v>
+        <v>73.69915212163555</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>50.68007044588942</v>
+        <v>76.21076314696343</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>0.2360122661403423</v>
+        <v>32.31080100763186</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>39.22227027187392</v>
+        <v>70.57947740881202</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>41.91374849507351</v>
+        <v>70.70979741916535</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>20.08749713489495</v>
+        <v>57.24457057706194</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>20.42426569049013</v>
+        <v>55.12269831579732</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>22.14239553463131</v>
+        <v>58.81253051492909</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>27.36895477295378</v>
+        <v>60.56442597537183</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-13.24712020477839</v>
+        <v>25.98715783567582</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>17.0936326934374</v>
+        <v>57.68567283298508</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>20.94770083602884</v>
+        <v>54.08256017971439</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-14.51534753311832</v>
+        <v>17.03748569296367</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>7.540849472954632</v>
+        <v>34.94982610792979</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>13.59468573375664</v>
+        <v>39.67475818015461</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-27.17899028076963</v>
+        <v>1.775066650276997</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>8.384268778459425</v>
+        <v>36.09778198427762</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>13.08678894698615</v>
+        <v>39.39429124762827</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-15.52727631692201</v>
+        <v>10.60230116612566</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.10929397653078</v>
+        <v>59.40195376000133</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>36.25704109109513</v>
+        <v>68.17251192508863</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>42.32020492859283</v>
+        <v>65.26583580133901</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>46.69096659019532</v>
+        <v>71.16856367148418</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>51.68149673017786</v>
+        <v>76.50984208386043</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-8.151045121037274</v>
+        <v>25.22775901674328</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>36.96285492580246</v>
+        <v>66.6942247322754</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>43.23606100776117</v>
+        <v>68.88121296709801</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>21.00620569199698</v>
+        <v>52.13507360904379</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>7.53244585529386</v>
+        <v>39.38762154155484</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>18.30719534084757</v>
+        <v>46.35725676747569</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>26.59863697586585</v>
+        <v>47.71411489663897</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-11.17246877238182</v>
+        <v>20.45359925031423</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>13.20372954830486</v>
+        <v>52.89474545397852</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>22.33000263329895</v>
+        <v>54.35151289212315</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-9.167011620696165</v>
+        <v>14.66398467077677</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>10.51177033255839</v>
+        <v>36.81258946784256</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>22.00194164964702</v>
+        <v>45.43383657050456</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-16.40665356452116</v>
+        <v>1.160091771790469</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>11.76483156736615</v>
+        <v>35.70028936543835</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>23.16276203520674</v>
+        <v>43.38893712977094</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-7.994957907701316</v>
+        <v>10.09860738778634</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30.18353369224995</v>
+        <v>57.98243644869626</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>43.60025267877015</v>
+        <v>72.23698523362846</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>31.73246294178213</v>
+        <v>58.6993674364595</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>46.91238199845162</v>
+        <v>70.63852570954869</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>58.32893750961502</v>
+        <v>78.46967939825308</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-4.446018536515897</v>
+        <v>22.66739688719813</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>32.42381709321609</v>
+        <v>67.44381668654155</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>47.63568213282603</v>
+        <v>75.44242419211922</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-1.986151074411801</v>
+        <v>10.75722396498967</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>8.598601584038796</v>
+        <v>24.1435316868348</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>13.38188022806405</v>
+        <v>30.38379861555351</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-13.85153278057631</v>
+        <v>-2.128971480721773</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>4.246448025779511</v>
+        <v>15.92952262948505</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>6.224960966509991</v>
+        <v>19.51723602165083</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-8.899768467797919</v>
+        <v>4.264420479330507</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>17.99448919170127</v>
+        <v>40.06236266241828</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>21.54495599486072</v>
+        <v>42.1161227770628</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.924195230765653</v>
+        <v>20.87931353899161</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>14.29705022394287</v>
+        <v>26.07338291949262</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>17.76620315574478</v>
+        <v>26.00695706109021</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-8.671253871526087</v>
+        <v>8.004602560672271</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>5.94749259707805</v>
+        <v>16.27912139627831</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>10.82663957943619</v>
+        <v>19.53428734074736</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>3.867986908333013</v>
+        <v>16.52382925944962</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>13.37424634706108</v>
+        <v>31.63977930292909</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>16.76616670897464</v>
+        <v>31.49761689784549</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-8.969271845213317</v>
+        <v>3.378034649365585</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>1.40542709833398</v>
+        <v>18.72726665023646</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>4.646337345894608</v>
+        <v>19.13136037365226</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-8.389245156938657</v>
+        <v>3.242334338613038</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>13.61369688624856</v>
+        <v>33.08494551803428</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-1.414192760265379</v>
+        <v>19.54316360502042</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>17.25038431213017</v>
+        <v>39.91278678008288</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>17.45864616668628</v>
+        <v>40.8674317354731</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-11.74653729484472</v>
+        <v>4.361806544427363</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>19.24056805726563</v>
+        <v>35.96980493466985</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>16.60359302499902</v>
+        <v>37.42515626769715</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-6.148983806781366</v>
+        <v>9.573900732739789</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>32.56567005720208</v>
+        <v>56.6837773811671</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>31.84780663603188</v>
+        <v>55.696336010971</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>30.13363264989012</v>
+        <v>49.11148554246719</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>37.1065753974771</v>
+        <v>54.83075670218863</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>37.64902300486698</v>
+        <v>52.72499810619369</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-3.792090779075849</v>
+        <v>12.86470389691579</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>27.49533529390038</v>
+        <v>42.45920005991738</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>26.18113112277186</v>
+        <v>40.84909233157215</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>3.360945764051912</v>
+        <v>23.57842962547261</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>21.12857448622903</v>
+        <v>43.16584260087306</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>21.7791839348226</v>
+        <v>41.05172931092675</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-7.835319990418022</v>
+        <v>5.186810931547601</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>16.61170663042427</v>
+        <v>36.15480787562208</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>17.15514233031279</v>
+        <v>36.25012772479077</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-3.294190214560633</v>
+        <v>10.37668062427348</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>31.58610667271992</v>
+        <v>56.87556752793765</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>-8.641514963190712</v>
+        <v>12.999850111061</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>11.13336748746446</v>
+        <v>33.95223837402563</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>13.1839947139507</v>
+        <v>35.44775299868721</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-14.97839781093287</v>
+        <v>3.561078075589965</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>17.72036141859982</v>
+        <v>33.80485616315333</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>17.49832298611731</v>
+        <v>37.16564936802035</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-9.214551492389671</v>
+        <v>9.593977883111963</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>30.92331082867587</v>
+        <v>54.8189556323684</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>32.30944837242859</v>
+        <v>55.40233256514756</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>27.72143203711454</v>
+        <v>52.3942835501836</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>34.41088306641335</v>
+        <v>54.76768893781831</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>37.46309491003032</v>
+        <v>53.78034288835151</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-12.74070446537038</v>
+        <v>2.968023477367623</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>21.37702305711649</v>
+        <v>32.10744761667605</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>22.90519260215625</v>
+        <v>30.138266451686</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-3.691555562171178</v>
+        <v>18.83976045151952</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>15.21262756361994</v>
+        <v>37.37952349344119</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>18.83823661633832</v>
+        <v>37.80583821425708</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-13.23374384886763</v>
+        <v>3.374371103867563</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>13.18416952749453</v>
+        <v>31.41478121251307</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>17.44598096905467</v>
+        <v>36.14709196425762</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-7.866192487049361</v>
+        <v>9.220529330224393</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.64113873795604</v>
+        <v>52.25736505053338</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-9.371600027017124</v>
+        <v>7.929221097504195</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>7.64661913532521</v>
+        <v>30.66326072498484</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>14.43559592609053</v>
+        <v>36.30317570925298</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-11.69320568961321</v>
+        <v>5.123056640240208</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>15.09592099281826</v>
+        <v>35.36323770006819</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>19.79144595396605</v>
+        <v>42.18901963860317</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-6.459643975026822</v>
+        <v>8.084161294241058</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.33754828355226</v>
+        <v>55.30022499731496</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>34.29322690606445</v>
+        <v>58.8541435607715</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>17.46290094501782</v>
+        <v>49.20759786632891</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>27.6885308509805</v>
+        <v>54.67413619916235</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>34.33790571523667</v>
+        <v>55.28990219041396</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-8.270787107963521</v>
+        <v>6.501855680263713</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>18.38125212643374</v>
+        <v>35.2221260585715</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.37959762359393</v>
+        <v>34.56530572539224</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-3.801315164245437</v>
+        <v>15.40281073440915</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>12.96885498531659</v>
+        <v>36.01649853665175</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>19.85180958701951</v>
+        <v>38.29317158461729</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-9.180805838399742</v>
+        <v>5.940648250029849</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>11.01646688325785</v>
+        <v>31.8060439470667</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>18.75762940729311</v>
+        <v>38.07782715188772</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-7.36978854652358</v>
+        <v>8.786093255279482</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>23.56136945120427</v>
+        <v>49.26123526443417</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>18.9327263326825</v>
+        <v>33.33312104821876</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>10.25337862727237</v>
+        <v>29.77360408723404</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>19.40693682626401</v>
+        <v>46.31090334040012</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>21.92362166192045</v>
+        <v>45.56879134786051</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-2.470394877904091</v>
+        <v>15.25019287578707</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.42685883656375</v>
+        <v>29.9366031739394</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>14.61275576953305</v>
+        <v>34.99959145672769</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>4.944197541602261</v>
+        <v>20.87562950320883</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>16.26396427363845</v>
+        <v>34.39980769881235</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>23.77145659096639</v>
+        <v>40.33577217616293</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-12.20673732432526</v>
+        <v>1.796806543829891</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>1.727111693082225</v>
+        <v>17.62450983755496</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>9.085004840979938</v>
+        <v>24.43146107050118</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-5.854228015114131</v>
+        <v>8.52751973180473</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>19.31640785418123</v>
+        <v>39.30555096985994</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.05992087827581</v>
+        <v>52.81889896008191</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>22.42717520956891</v>
+        <v>36.77573740020214</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.01882253903109</v>
+        <v>51.88756842571803</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>41.45757358595345</v>
+        <v>55.21901553887636</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-2.721000036910084</v>
+        <v>15.98546067883149</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>17.83881505796438</v>
+        <v>35.71112306303708</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>27.22470232235516</v>
+        <v>45.33903359007212</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>34.36789870109482</v>
+        <v>59.32191974415069</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>35.81204965706473</v>
+        <v>58.31865040723966</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>41.89199042400093</v>
+        <v>68.88306414085103</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>42.97668655794263</v>
+        <v>65.93164091950135</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>5.548342093577341</v>
+        <v>24.75722511309496</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>38.53593389040866</v>
+        <v>61.2102642512769</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>36.82179013679232</v>
+        <v>60.64490192038687</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>7.272107727915866</v>
+        <v>26.92508571468352</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.75487536231605</v>
+        <v>49.69190947066778</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>31.29895312025256</v>
+        <v>46.37275112798746</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-7.223103489010303</v>
+        <v>4.849265724169324</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>23.76311045159601</v>
+        <v>42.99355239646381</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>25.02778198265098</v>
+        <v>38.79424086223261</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>3.102483724089559</v>
+        <v>11.06490680272222</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>43.6175073077621</v>
+        <v>66.07952293592722</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>47.71698071457901</v>
+        <v>66.99698199072114</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>55.91666625790397</v>
+        <v>73.8175773260398</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>62.3012223925361</v>
+        <v>79.46848259961244</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>65.63765177995424</v>
+        <v>80.67636654875872</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>12.15507709457202</v>
+        <v>29.2967923946217</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>54.12833732481214</v>
+        <v>73.42446444361138</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>55.43191733474715</v>
+        <v>71.52309064567687</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>34.67716139242564</v>
+        <v>60.17287962364307</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>30.78877315670443</v>
+        <v>54.97924703448672</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>35.74747250089278</v>
+        <v>61.59130444793179</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>41.01900944452122</v>
+        <v>64.26442639716632</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-4.375052285084095</v>
+        <v>19.28223340284411</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>31.79518927952661</v>
+        <v>56.90063781608175</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>34.57885163432898</v>
+        <v>58.44283834111393</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-1.039844420099886</v>
+        <v>20.33286910568716</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>22.94241800972012</v>
+        <v>43.51759308008992</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.08916289081209</v>
+        <v>42.04025861416045</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-13.92003283561795</v>
+        <v>2.39959736300597</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>20.74498199243549</v>
+        <v>40.11711307828973</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>25.14575186988404</v>
+        <v>38.78125216226191</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-2.7154245331288</v>
+        <v>8.043327494525581</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>40.91678046476254</v>
+        <v>62.07627286382315</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>47.73160519095711</v>
+        <v>65.92493262047523</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>51.72435050915374</v>
+        <v>71.93472392530812</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>57.97606040549762</v>
+        <v>75.90823547829514</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>64.95689830697714</v>
+        <v>81.45466182268999</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>2.719911612556526</v>
+        <v>22.73368790677581</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>50.14014025848644</v>
+        <v>69.50802845893094</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>55.28289039871453</v>
+        <v>69.90252422480025</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>32.89015557070121</v>
+        <v>57.24021157427168</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>16.99299017195658</v>
+        <v>41.49670289687349</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.44786536457906</v>
+        <v>50.86594217633274</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>37.29677611650421</v>
+        <v>54.03650354121098</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-2.715616526239884</v>
+        <v>19.45186125103366</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>26.06199974777413</v>
+        <v>54.95456063109972</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>33.50861924107792</v>
+        <v>59.28759412816093</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>2.551051915756489</v>
+        <v>17.89802093505961</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>23.22228287317228</v>
+        <v>42.74750939597445</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>33.68998942046585</v>
+        <v>47.25076253226946</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-6.144768616223985</v>
+        <v>3.928651273510422</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>20.25903281505127</v>
+        <v>39.08862340742903</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>31.25418405304924</v>
+        <v>45.2418394380876</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>1.925335094974237</v>
+        <v>8.408099049054005</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>38.3306854196685</v>
+        <v>58.50764487119136</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>51.30847251504592</v>
+        <v>70.91342603821418</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>39.46610041332117</v>
+        <v>63.11045969244874</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>54.86788937516615</v>
+        <v>72.50072528258598</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>67.86941429779928</v>
+        <v>81.83872286491813</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>5.774274411303182</v>
+        <v>22.67334527694552</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>43.6873376128522</v>
+        <v>71.07599047277292</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>57.45206775694621</v>
+        <v>77.52129938397883</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>20.54043970031089</v>
+        <v>12.65156102876257</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>25.8185383664627</v>
+        <v>16.53092969218815</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>30.61484144776043</v>
+        <v>24.3722504553301</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.8139678929112</v>
+        <v>-0.6421003559355434</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>23.69048014964442</v>
+        <v>10.6721224679262</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.26466561971736</v>
+        <v>13.63906218132298</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.59202918928983</v>
+        <v>3.062372218926178</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>35.56771682772269</v>
+        <v>28.79230829593153</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>38.68210506403053</v>
+        <v>31.69719649967562</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>26.59552878367314</v>
+        <v>11.75976222879416</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.1832995299293</v>
+        <v>15.88127864251546</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>32.09470406431947</v>
+        <v>17.80551317392711</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>16.50372864783568</v>
+        <v>10.81509209126435</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.32761119401232</v>
+        <v>12.69268078977787</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.65085227516152</v>
+        <v>22.56571859079288</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>18.21668931766562</v>
+        <v>10.55528167524707</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.92773370523611</v>
+        <v>20.20332048692982</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.41307170271816</v>
+        <v>22.06256485252693</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>5.625928994127278</v>
+        <v>0.6946806104072785</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>14.90670677221401</v>
+        <v>7.580641794952752</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>17.81279343957157</v>
+        <v>8.175693764848067</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>5.217805903381709</v>
+        <v>-3.601701211712356</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.99636134121575</v>
+        <v>16.50575118978179</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>19.59479407639998</v>
+        <v>15.90308798481382</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>31.89431775809196</v>
+        <v>23.96736292868922</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>32.72261144091576</v>
+        <v>28.15100180641534</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>11.72947357181451</v>
+        <v>2.435423985061849</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>36.26756848880965</v>
+        <v>22.87008767652501</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.83848748333694</v>
+        <v>24.36793677553555</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>15.11185611671589</v>
+        <v>5.956345350887986</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>47.79937005291602</v>
+        <v>39.2069703094171</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>47.19897058218298</v>
+        <v>40.07851014685637</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>47.68494866732249</v>
+        <v>35.35853892979696</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>51.25995304132428</v>
+        <v>40.90844759009611</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>50.77701627912991</v>
+        <v>41.64122378539224</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>21.89064231637243</v>
+        <v>17.7880062438344</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>44.76327473794137</v>
+        <v>37.75183015985606</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>44.71939604875583</v>
+        <v>41.02127198723598</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>18.83666688984859</v>
+        <v>14.67792409450404</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.94389613708053</v>
+        <v>27.06705599437765</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.26348160341151</v>
+        <v>28.91102347954477</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>9.087259609377398</v>
+        <v>1.912419226674633</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>31.43870821220181</v>
+        <v>21.56103347568715</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>32.2242389307853</v>
+        <v>24.25549143680623</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>12.6550061888299</v>
+        <v>2.46615899628091</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>45.39797449005223</v>
+        <v>36.88821944873198</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>11.32940224873579</v>
+        <v>10.3587161396507</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>24.66891092588388</v>
+        <v>18.93714054147862</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>27.41197528379605</v>
+        <v>24.00580615975642</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>7.482548292736368</v>
+        <v>2.206428690055198</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>33.64318532675455</v>
+        <v>21.0489902565681</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>33.69901643698203</v>
+        <v>24.8770853149536</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>11.09740738051951</v>
+        <v>7.194785991124117</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>45.12783583925229</v>
+        <v>38.43502235104793</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>46.69902796643589</v>
+        <v>41.38201375070112</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>44.59790922627188</v>
+        <v>38.57378802356904</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>47.83287169664391</v>
+        <v>41.23221736084724</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>49.93960073971685</v>
+        <v>44.0713626884499</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>12.40503104095735</v>
+        <v>8.121018725863019</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>37.99732154091583</v>
+        <v>28.30822031456934</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>40.89601196027944</v>
+        <v>31.27323391288553</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>11.54129082257755</v>
+        <v>9.501825945126097</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>27.73198014575637</v>
+        <v>20.55977312801124</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>32.08155496984608</v>
+        <v>25.73886459677901</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>3.764878864783434</v>
+        <v>-0.7411125650595807</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.01942591467594</v>
+        <v>15.55449005001185</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>32.57036444963152</v>
+        <v>24.13642630181739</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>8.230362903834276</v>
+        <v>0.9712692791130415</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>42.53721885888908</v>
+        <v>31.56278325667951</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>11.65901080107156</v>
+        <v>3.013212914100635</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>23.04631135844673</v>
+        <v>13.74795551899142</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.85701747436743</v>
+        <v>22.59243755934199</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>11.64843161015718</v>
+        <v>0.3020248882838246</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>32.8534462857151</v>
+        <v>20.56096385056363</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>37.10930976697468</v>
+        <v>28.19945964715117</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>14.62968442723241</v>
+        <v>0.96519449870204</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>44.17649771364214</v>
+        <v>35.07266773433486</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>49.66977876527369</v>
+        <v>41.30189157804828</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.97939885036806</v>
+        <v>32.98609402694628</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>42.2241257976019</v>
+        <v>37.68773347877369</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>47.2232600106396</v>
+        <v>42.03229469470999</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>16.29718819415249</v>
+        <v>4.772029889342825</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>35.69328046871482</v>
+        <v>26.21564806184958</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>44.12100004546828</v>
+        <v>32.58592927748471</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>10.3435681509338</v>
+        <v>6.345949504847894</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.14247382124304</v>
+        <v>20.02701633810408</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>32.08711466881407</v>
+        <v>26.6199693392007</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>5.789650286457917</v>
+        <v>1.389800149284365</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>24.7069995585667</v>
+        <v>16.48264951742236</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>32.0261624581229</v>
+        <v>26.32316897641969</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>6.595211769397489</v>
+        <v>0.2721205679920011</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>36.12551306711411</v>
+        <v>28.99781451514284</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.8353296928247</v>
+        <v>17.15525381296759</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>19.00063094859422</v>
+        <v>12.313162232028</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.9272415244488</v>
+        <v>23.27809266225784</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.46720955639477</v>
+        <v>22.72743959031623</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>10.2388130636079</v>
+        <v>4.145781856454185</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>23.56012805092672</v>
+        <v>11.95848583154784</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.7210818309218</v>
+        <v>16.68306078278786</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>22.50270356325852</v>
+        <v>18.46312719507691</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>32.6946095217492</v>
+        <v>25.67455247318227</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>39.63142811330411</v>
+        <v>33.74385886226578</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>5.206597181170093</v>
+        <v>0.5004705313993263</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>18.79856510160678</v>
+        <v>8.175679708903109</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>24.98115054295438</v>
+        <v>15.90043331806115</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>10.52251429576614</v>
+        <v>4.221624161610258</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.19065328988221</v>
+        <v>27.36268854424261</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>43.66009431540085</v>
+        <v>39.71131954208511</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>34.80804378184413</v>
+        <v>26.37341528667184</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>44.65266219405644</v>
+        <v>35.28167154680167</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>50.80845603973277</v>
+        <v>38.20886115072179</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>13.25706126413095</v>
+        <v>10.23358300620557</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>32.80601839524851</v>
+        <v>21.25262513912337</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>41.12556696369002</v>
+        <v>31.34008407466209</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>48.21777344717222</v>
+        <v>41.62662929074303</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>47.10341532984175</v>
+        <v>37.98930993914779</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>52.57123236818566</v>
+        <v>45.5770632770837</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>52.15209320070296</v>
+        <v>42.93872464444071</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>22.11917583913197</v>
+        <v>14.35401398147463</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>52.15990664410512</v>
+        <v>42.00017588104353</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>51.2110045748135</v>
+        <v>43.22100256004735</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>27.76261836043606</v>
+        <v>24.74044691553295</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>47.45243826606924</v>
+        <v>40.54518822995294</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>49.90196086495773</v>
+        <v>40.86907188596257</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>14.8738389634002</v>
+        <v>7.293682139363622</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>44.75890264283926</v>
+        <v>36.04997188794908</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>45.30172652186511</v>
+        <v>35.19529507294679</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>24.22219321866545</v>
+        <v>11.20412457328781</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>63.53061808005205</v>
+        <v>57.86877567344025</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>66.77002266443597</v>
+        <v>59.08784897688345</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>73.52038451204032</v>
+        <v>71.04158398152677</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>79.1402988498053</v>
+        <v>70.68421040128491</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>80.4607736406393</v>
+        <v>70.98560434764227</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>34.67933202173161</v>
+        <v>33.68115791177863</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>74.53668932964379</v>
+        <v>65.92582732976864</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>75.41151063759786</v>
+        <v>67.87068388928286</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>48.66011632474005</v>
+        <v>42.9597062839911</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>42.54605944245943</v>
+        <v>33.08424552857262</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>46.89380911064818</v>
+        <v>38.05046455714464</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>50.72177826476205</v>
+        <v>41.92604348881509</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>12.73985082793316</v>
+        <v>8.319425709382486</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>45.88252032376606</v>
+        <v>37.53462787044431</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>49.51154454343438</v>
+        <v>42.22032141631645</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>19.74199392299331</v>
+        <v>17.6923557055965</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>41.96128648959613</v>
+        <v>35.10040162795509</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>47.03739846658186</v>
+        <v>37.47640528749965</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>9.01282663376978</v>
+        <v>4.350230777213454</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>42.60920999138268</v>
+        <v>34.15060243146462</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>46.29646042389381</v>
+        <v>36.62945676868728</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>19.31560541933307</v>
+        <v>8.260487759065962</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>61.76448112330516</v>
+        <v>55.40461696592618</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>67.73625717411643</v>
+        <v>60.06093745311149</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>70.55695039577914</v>
+        <v>69.58648916982136</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>76.1774317040823</v>
+        <v>68.85854893955602</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>81.14712087153215</v>
+        <v>73.96564014241999</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>26.50454891060652</v>
+        <v>26.35126357678575</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>71.85459113861083</v>
+        <v>63.54632048318581</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>76.6004594936861</v>
+        <v>68.7103707615636</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>44.9004299666651</v>
+        <v>40.47222182923419</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>26.33617096303876</v>
+        <v>20.17737308026926</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>38.54052858824214</v>
+        <v>26.4952682128103</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>44.25444505492705</v>
+        <v>30.9312570681823</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>10.90989903020723</v>
+        <v>6.239342786980711</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>37.87710738468157</v>
+        <v>35.24612956309728</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>45.20844445611146</v>
+        <v>41.72895870260438</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>21.16021724998407</v>
+        <v>14.29740520372481</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>40.65347590387015</v>
+        <v>34.53361047046867</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>50.45445342705256</v>
+        <v>41.62562209955217</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>13.21816262480685</v>
+        <v>3.69290649871315</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.24543730934497</v>
+        <v>32.35523374171225</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>48.89935025326429</v>
+        <v>40.75895886106351</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>20.26730782700881</v>
+        <v>6.497639566879545</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>56.12635437669708</v>
+        <v>51.15579480810278</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>67.68806696414134</v>
+        <v>63.26932862914248</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>54.06728590094731</v>
+        <v>56.39466838182432</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>68.84940634631526</v>
+        <v>61.20493577290536</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>79.32288926325528</v>
+        <v>70.34914586412464</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>24.18746309204825</v>
+        <v>17.30860849076753</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>61.03017151227854</v>
+        <v>61.15845746806521</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>73.54311864583812</v>
+        <v>69.80478029991501</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>17.29492103598991</v>
+        <v>12.73803325133353</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>24.44832170217185</v>
+        <v>16.58699238185605</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>32.99983552411481</v>
+        <v>25.72210923398091</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>5.13268002957513</v>
+        <v>1.550054149751038</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.1317635023616</v>
+        <v>19.98516238357454</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.5582337884828</v>
+        <v>21.84223794593103</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>11.92899036775269</v>
+        <v>10.3445533005458</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>38.46270721686841</v>
+        <v>39.23978499162897</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>46.39663023257403</v>
+        <v>42.77527230469705</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.96017961665585</v>
+        <v>16.99475004194219</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>37.03172271093337</v>
+        <v>23.24936016131302</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>42.93271435537193</v>
+        <v>25.66163594247869</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>14.15459660694467</v>
+        <v>16.81226086217394</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>22.90891685197761</v>
+        <v>17.52270880231932</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>34.79296060009064</v>
+        <v>29.89779536269236</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>21.02266750191432</v>
+        <v>12.38902511019508</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>32.09778429841836</v>
+        <v>28.94873328313955</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>40.3658682347006</v>
+        <v>35.6920728100253</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>2.83673351820137</v>
+        <v>1.476599000791747</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>18.14701793476683</v>
+        <v>12.96833807139045</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>27.56771442663279</v>
+        <v>17.91662495131265</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>4.258388207305552</v>
+        <v>1.710337158290994</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>30.8869897732921</v>
+        <v>27.91804659043986</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>22.40602833662791</v>
+        <v>15.62250123329782</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>39.51035233526541</v>
+        <v>29.21279110786168</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>43.6654721477211</v>
+        <v>32.67922163036427</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>10.85075393378336</v>
+        <v>1.430160954951823</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>44.60478840380024</v>
+        <v>38.45184261783979</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>46.89546047462896</v>
+        <v>39.73396300006775</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>20.49426573548773</v>
+        <v>6.987398496065957</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>61.4513909668247</v>
+        <v>53.72689415593285</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>65.48365517465953</v>
+        <v>53.89637939973637</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>62.06140981617942</v>
+        <v>52.34721815552676</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>71.33961236627108</v>
+        <v>61.87361042500601</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>74.34145049884515</v>
+        <v>61.52885167907424</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>26.11267196844265</v>
+        <v>22.37837153461674</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>55.19964825614731</v>
+        <v>49.43566653448396</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>61.26024966139492</v>
+        <v>52.8644582478816</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>25.1453725979698</v>
+        <v>19.80328753367538</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>46.42664056600772</v>
+        <v>42.33915061093099</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>52.08924054306168</v>
+        <v>45.46762623922172</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>9.006269863791239</v>
+        <v>4.279896243292715</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>41.37007802682071</v>
+        <v>35.98676879740769</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>48.59638904286869</v>
+        <v>45.45118172473306</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>16.13985228691323</v>
+        <v>9.775951334823603</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>58.36231318237585</v>
+        <v>58.55912222127498</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>16.33483891816557</v>
+        <v>7.169919170974243</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>35.42799290806856</v>
+        <v>24.61865707788503</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>41.76774084069862</v>
+        <v>29.62498889241744</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>9.35164252244507</v>
+        <v>-2.290736087978697</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>45.85502974729395</v>
+        <v>35.79809743070233</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>51.11624703420674</v>
+        <v>40.44818274431074</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>19.762503381201</v>
+        <v>4.515388974374648</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>63.08654796547744</v>
+        <v>52.65850908259507</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>69.69248386370668</v>
+        <v>55.87266724509978</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>61.86263398960484</v>
+        <v>55.02605972459446</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>71.19732279759434</v>
+        <v>59.97207851526409</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>77.67224630351065</v>
+        <v>63.36917821386642</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>18.26834056356143</v>
+        <v>9.604674235357237</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>51.63950955875147</v>
+        <v>39.76722231003984</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>61.31789625110739</v>
+        <v>45.84850303566788</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>19.54864343894994</v>
+        <v>14.46988672938258</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>42.73012836860147</v>
+        <v>36.91544685627287</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>51.78591181862683</v>
+        <v>42.63092708648484</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>6.077902252204508</v>
+        <v>0.4017722646822257</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>41.34803670984501</v>
+        <v>29.77800958629617</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>52.95076197655892</v>
+        <v>46.36972291856057</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>14.53717161775068</v>
+        <v>7.446172786114799</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>59.23322720888484</v>
+        <v>53.96624986251829</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>11.15320567043238</v>
+        <v>2.149356167118231</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>26.22913709768004</v>
+        <v>19.16588061707694</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>37.60066359651734</v>
+        <v>29.01485861033367</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>9.604472400684241</v>
+        <v>-0.9245968290450186</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>38.21748429909709</v>
+        <v>34.73816484108038</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>48.59244652047537</v>
+        <v>41.71273890049483</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>17.60314704359971</v>
+        <v>3.24895798810218</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>53.76907387636021</v>
+        <v>48.78907191081376</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>65.17083101070745</v>
+        <v>56.82064682193467</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>43.44271345242247</v>
+        <v>43.7482482735889</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>55.33862894471075</v>
+        <v>49.51753104380357</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>66.09779135483029</v>
+        <v>53.80812603693721</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>17.12686061410826</v>
+        <v>6.546575692670267</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>40.28877513085234</v>
+        <v>29.06678720278316</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>57.06110484322609</v>
+        <v>43.48580251412352</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>16.67547186836014</v>
+        <v>8.082081103646219</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>36.66482928764874</v>
+        <v>33.38616693883959</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>49.41982992032317</v>
+        <v>43.13226727871464</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>7.844787700972796</v>
+        <v>-0.6610612036164802</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>35.11294120253368</v>
+        <v>27.02221970533216</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>50.51484457426851</v>
+        <v>43.73366565702044</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>11.34312546371981</v>
+        <v>3.1845768648266</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>48.82467876662241</v>
+        <v>47.51489484980533</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>42.08140221683895</v>
+        <v>35.77323439355643</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.70320728965862</v>
+        <v>25.76397548254914</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>43.20363115143461</v>
+        <v>48.63333546435808</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>50.30777796408669</v>
+        <v>54.31501476568837</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>14.31482192329508</v>
+        <v>7.772396623146648</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>33.38138811353606</v>
+        <v>26.26914818473859</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>43.33013718884338</v>
+        <v>36.1036654391262</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>18.03461989693001</v>
+        <v>16.99835371836069</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.33729424236467</v>
+        <v>28.61915358892931</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>42.19448865348001</v>
+        <v>39.38360767460029</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-1.632485500975807</v>
+        <v>3.848962886049382</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>17.94543421856475</v>
+        <v>13.75604920184734</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.52527189245484</v>
+        <v>18.12653593585253</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>5.829484972753736</v>
+        <v>2.664491502831222</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>36.43086821795095</v>
+        <v>30.89569026000303</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>50.391625582929</v>
+        <v>44.36537940053242</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>42.13968344098714</v>
+        <v>30.53522530005396</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>57.56831351645095</v>
+        <v>55.44875887113164</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>65.71355392582085</v>
+        <v>59.27636004205083</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>9.942260855297775</v>
+        <v>7.76505380545937</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>35.71320165149097</v>
+        <v>27.01654976047022</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>51.14389232553385</v>
+        <v>37.16201179750395</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>67.40204008805026</v>
+        <v>70.68071125111399</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>65.80545813578708</v>
+        <v>64.56232734948323</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>77.29225549751425</v>
+        <v>79.26330248299533</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>82.6711883094426</v>
+        <v>84.96721176234303</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>31.41160488723803</v>
+        <v>28.65077389345583</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>72.38275063168157</v>
+        <v>76.20332041151153</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>78.76647843459199</v>
+        <v>79.18969393467628</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.399163015614</v>
+        <v>25.30255594405973</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>50.57005166900213</v>
+        <v>47.46177364824292</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>56.99535819549521</v>
+        <v>52.4886804940524</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>10.2401542517904</v>
+        <v>6.651209889161827</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>49.55596917831443</v>
+        <v>44.99238426649423</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>55.98016591457613</v>
+        <v>48.74836457905476</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>23.31389085854495</v>
+        <v>10.16199268927873</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>71.73120243131301</v>
+        <v>70.58934973550156</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>80.77491742150268</v>
+        <v>79.35076396366266</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>89.41375543873275</v>
+        <v>85.465159278577</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>100.5913015279424</v>
+        <v>98.47957161139517</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>103.2460874052026</v>
+        <v>100.4043269483446</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>37.47626305132883</v>
+        <v>38.08183726687081</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>88.135278032606</v>
+        <v>93.36399720135539</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>96.39137720822551</v>
+        <v>94.71183945864119</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>72.08529022705048</v>
+        <v>73.46295115962101</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>63.19279540576028</v>
+        <v>57.48744427367181</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>73.70235889860771</v>
+        <v>66.11356570529739</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>84.31839612919771</v>
+        <v>80.37554666667427</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>22.91380149929403</v>
+        <v>21.64623286113694</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>68.34396813205875</v>
+        <v>70.55931116953472</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>80.13969400846509</v>
+        <v>78.07950217404037</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>18.32305476083726</v>
+        <v>16.29170592929719</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>46.82150036534752</v>
+        <v>41.09953342220201</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>56.2428380441354</v>
+        <v>48.28364607969139</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>6.461166470913007</v>
+        <v>2.764765694750714</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>50.45782653259797</v>
+        <v>43.20860255539417</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>60.6423880844367</v>
+        <v>52.03968715646323</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>20.75761853795971</v>
+        <v>6.349710466096194</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>73.1975971036196</v>
+        <v>68.69311991111601</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>85.47535873874283</v>
+        <v>82.30568997235878</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>87.91979218232628</v>
+        <v>81.42054977652637</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>99.08298229420944</v>
+        <v>92.33099784259443</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>106.255970514619</v>
+        <v>100.0438133073207</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.45222317641776</v>
+        <v>26.92910849806317</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>86.9251909365216</v>
+        <v>86.36657607087119</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>99.86719186559017</v>
+        <v>94.15366823990158</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>65.30749220209307</v>
+        <v>67.68141821081817</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>42.86565510750488</v>
+        <v>38.45699582314566</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>60.62275398280458</v>
+        <v>49.60080859204709</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>75.00195029432041</v>
+        <v>63.57611500146569</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>19.13086797668802</v>
+        <v>13.77689847683166</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>54.79966590571011</v>
+        <v>59.97730580651354</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>72.056364356161</v>
+        <v>72.32881539613705</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>19.26251547979167</v>
+        <v>14.60369919221236</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>43.66831858986349</v>
+        <v>42.28449461073848</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>58.49844923223885</v>
+        <v>55.18839394756765</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>10.81382852295599</v>
+        <v>4.840353584821461</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>45.10722748797306</v>
+        <v>41.28741611910432</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>61.81316615128402</v>
+        <v>54.2635404378084</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>20.72942719789678</v>
+        <v>5.802223905036133</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>64.59237025469309</v>
+        <v>62.52091463348169</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>83.06490451954707</v>
+        <v>83.00820332802736</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>66.48501403328999</v>
+        <v>68.69972706311086</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>87.58234260447801</v>
+        <v>85.65810737226941</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>102.0060949111763</v>
+        <v>100.8128519905312</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>23.6509243668624</v>
+        <v>20.36902322236616</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>69.65897827958671</v>
+        <v>75.40705178933258</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>91.52261482919185</v>
+        <v>91.66557728171796</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test2/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.624</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.663</v>
+        <v>14.913</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.659</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.4</v>
+        <v>16.254</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.984</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.462</v>
+        <v>6.345</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.529813651401421</v>
+        <v>11.2315776372106</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.19842084249728</v>
+        <v>9.292269347996768</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.57814142704767</v>
+        <v>13.74253677771018</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.561881114601483</v>
+        <v>2.381956903269238</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.29449065319121</v>
+        <v>8.02622831253997</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14.66806592468264</v>
+        <v>8.738165238782345</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.726158039957713</v>
+        <v>4.729111574384962</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.6602953431676</v>
+        <v>20.11566812925587</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.15812223780279</v>
+        <v>21.46516998859603</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11.6457793082304</v>
+        <v>3.772056413076378</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>15.12848159520548</v>
+        <v>9.564640337639618</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16.4054958578539</v>
+        <v>11.98965377672128</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.03712918865868</v>
+        <v>14.94951992259198</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9.476721413268754</v>
+        <v>6.685623217585958</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>18.5469167086674</v>
+        <v>12.75514290939879</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.564827822739117</v>
+        <v>11.913169653144</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>16.03769227998755</v>
+        <v>14.39757462653087</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.55971689691316</v>
+        <v>17.678981849603</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8.921356482618952</v>
+        <v>6.367346890603427</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.04027849822753</v>
+        <v>4.110865744269127</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>13.42339703986169</v>
+        <v>6.662018741162047</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.018770128096456</v>
+        <v>-2.158845331622107</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>9.084496523565953</v>
+        <v>8.456049237211934</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17.06674360281679</v>
+        <v>14.26480397927694</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.40824856509094</v>
+        <v>18.79487311325803</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.25197731279718</v>
+        <v>20.30970955465212</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.55659903218282</v>
+        <v>3.470656430303077</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.61233431510416</v>
+        <v>22.51814213659447</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.55168491131172</v>
+        <v>22.97763713307721</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.230017294737689</v>
+        <v>4.000897218442862</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36.67663017051261</v>
+        <v>31.99639012209942</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.95104704647929</v>
+        <v>32.89739824384344</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36.94654529683824</v>
+        <v>30.93867183426197</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>44.20400894845531</v>
+        <v>38.22100044319316</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>45.02493999229176</v>
+        <v>40.62674021572112</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>20.99197477905753</v>
+        <v>20.61742543333607</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31.24120659219235</v>
+        <v>30.67881320959435</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34.8433795161459</v>
+        <v>32.42831224768278</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>14.63018253399467</v>
+        <v>13.22920977924937</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>21.834049975674</v>
+        <v>20.50384561779364</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>25.98451827988829</v>
+        <v>24.08988047435691</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8.289637363799304</v>
+        <v>6.49308672953722</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>21.77640640674809</v>
+        <v>18.49634229391338</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>30.29749224614185</v>
+        <v>25.19725211669842</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>31.92502866947</v>
+        <v>27.97191786215245</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>11.1174816970813</v>
+        <v>11.24518588154068</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>21.69327407809995</v>
+        <v>16.58264024238721</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>26.58185173895614</v>
+        <v>19.77453902976141</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.924532251729634</v>
+        <v>3.745493178480757</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.90916980912541</v>
+        <v>22.50400669233882</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.38179628426143</v>
+        <v>26.36173892403964</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7.53198502958162</v>
+        <v>6.168869973368755</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>40.25045886980404</v>
+        <v>34.05215971408471</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>42.8692599904703</v>
+        <v>37.99564131206948</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.74158278919765</v>
+        <v>33.8272296651085</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.52043548775498</v>
+        <v>38.1807070486305</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>47.85155542106659</v>
+        <v>44.13160448213161</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>17.26884098379782</v>
+        <v>12.9525565896397</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.9197324140529</v>
+        <v>24.00707004712602</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.03154874245846</v>
+        <v>29.08127714187016</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>11.17942599894527</v>
+        <v>9.394361686137877</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>21.08543674471163</v>
+        <v>15.95776961196615</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>26.97795873442652</v>
+        <v>22.38334867731913</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>9.14118004674482</v>
+        <v>4.583742300063999</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>18.45334936497447</v>
+        <v>15.33391608259147</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.31992752875989</v>
+        <v>27.3292743642056</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>7.034032347101903</v>
+        <v>1.997837066818651</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>31.84605212906747</v>
+        <v>26.75623090349491</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5.594427202438794</v>
+        <v>4.218147587289273</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>14.63782462218424</v>
+        <v>10.99979143073848</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>19.59929209268958</v>
+        <v>17.45637425362295</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1.576670396640367</v>
+        <v>2.089643720411416</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>23.46134974701621</v>
+        <v>18.90487881498052</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.84123562070704</v>
+        <v>25.87496408984492</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.05587025033882398</v>
+        <v>1.147384271688562</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>31.69970607981402</v>
+        <v>27.43544962033315</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.9694245542203</v>
+        <v>33.99232817833387</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>20.87450278907533</v>
+        <v>21.31675583363938</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>25.16046901672662</v>
+        <v>25.12101169689122</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>31.24500454536832</v>
+        <v>31.54330235521937</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>9.708395236293127</v>
+        <v>8.468916384901622</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>21.47222155085492</v>
+        <v>15.94142027083365</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>33.43488583728188</v>
+        <v>26.58930076155494</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6.886842699435771</v>
+        <v>5.134589061208288</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>18.4694630292509</v>
+        <v>15.74703516047898</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25.24360610212578</v>
+        <v>24.16513292828081</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>7.267223613274382</v>
+        <v>4.937115705400515</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>19.70167004934578</v>
+        <v>15.45694969590104</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.99697280960853</v>
+        <v>28.69398309173775</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1.177411965560353</v>
+        <v>-0.7623555647709956</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>26.11466084232709</v>
+        <v>23.06294788858389</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>13.37158882412086</v>
+        <v>13.96784191395695</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>10.53656339699731</v>
+        <v>6.662522319364692</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.85735044443715</v>
+        <v>25.07254682745074</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>32.89930022275005</v>
+        <v>27.38674367730682</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>4.586734854836322</v>
+        <v>3.554717201497805</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>7.81594880471679</v>
+        <v>6.401598854527997</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>12.90617896778121</v>
+        <v>9.764634826938284</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>11.08052029132321</v>
+        <v>15.94717768980488</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>17.71404746694625</v>
+        <v>16.1020170006899</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.56046341161603</v>
+        <v>25.27416515930564</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>9.286449366436031</v>
+        <v>5.411101744313584</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10.98764990855749</v>
+        <v>2.565094085846827</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>11.30437401659304</v>
+        <v>8.927164360400845</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2.480340538336002</v>
+        <v>0.8919564445538697</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>11.92286805916389</v>
+        <v>13.99694117617404</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.79601247453602</v>
+        <v>26.47552062858684</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>14.08290806780325</v>
+        <v>13.88109459125921</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>36.06712422077624</v>
+        <v>30.56009431437989</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>40.65226478985877</v>
+        <v>35.80448280074636</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3.50346444507224</v>
+        <v>4.256784194885082</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.980876369021589</v>
+        <v>7.254446782462932</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>16.91958781413165</v>
+        <v>17.04262352901639</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>41.83629160516936</v>
+        <v>38.545645318345</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>34.19785246180637</v>
+        <v>32.16872172774154</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>47.1489016349912</v>
+        <v>41.94387962100518</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>52.35034465971755</v>
+        <v>47.27741854805494</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>19.00857930527454</v>
+        <v>16.38703694211884</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>40.13537710137409</v>
+        <v>37.82619338736166</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>44.84427998636338</v>
+        <v>40.17568805450645</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>22.7918226319557</v>
+        <v>21.25214139156174</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.20563564046714</v>
+        <v>31.44279512227702</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.91560145769984</v>
+        <v>37.28826978226294</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>9.520945527522299</v>
+        <v>10.78174172679239</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>32.24088051855262</v>
+        <v>30.55824447217273</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>40.87724191000223</v>
+        <v>35.83048332904301</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>7.561952254895225</v>
+        <v>9.658486648967493</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>49.22795925433859</v>
+        <v>46.53937917517479</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>62.57570363094203</v>
+        <v>56.84831892257836</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>61.81616963325015</v>
+        <v>62.76923172896981</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>73.10037199234796</v>
+        <v>68.69451634920875</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>81.14585591664209</v>
+        <v>74.69080470415498</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>32.4637022195617</v>
+        <v>31.81055677719808</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>63.25020623338111</v>
+        <v>60.30422157712613</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>67.11919945814881</v>
+        <v>66.41706077715918</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>47.21180554747559</v>
+        <v>42.49623419400907</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>30.01441817806811</v>
+        <v>26.75513409461146</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>36.14628186121769</v>
+        <v>31.60076526329815</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>50.61053771926803</v>
+        <v>43.8651863561965</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>15.45675028853855</v>
+        <v>10.54814676712759</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>38.32889914212803</v>
+        <v>33.3213194940454</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>43.58481451967221</v>
+        <v>40.16920536554959</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>16.37171200514447</v>
+        <v>16.45405509262933</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.418854348332</v>
+        <v>28.18541480885263</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>39.50218994262625</v>
+        <v>36.79127093587004</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>9.175234793281685</v>
+        <v>8.487883901885002</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>30.59880064602345</v>
+        <v>30.0656941643662</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>42.31790445513757</v>
+        <v>40.24974704385061</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>9.402976568494399</v>
+        <v>8.6551183635871</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>50.74693066596402</v>
+        <v>47.73274886773713</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>68.13271528957549</v>
+        <v>62.37370401755402</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>61.48154886759239</v>
+        <v>61.43326033835835</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>69.42151179998751</v>
+        <v>65.22091214681492</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>81.79126342163434</v>
+        <v>75.83796200418956</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.58628634958308</v>
+        <v>24.05769921615557</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>57.20221939391175</v>
+        <v>56.25481975113973</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>67.14010534245276</v>
+        <v>68.14894415077036</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>41.0637356491613</v>
+        <v>39.01145711396523</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>16.28506789883355</v>
+        <v>12.87958007401925</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>21.99238446286299</v>
+        <v>21.1236024846974</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>32.56459015359319</v>
+        <v>33.5868006138235</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>8.245857170310792</v>
+        <v>5.262326691010738</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>35.28788970867013</v>
+        <v>29.0301459730305</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>41.61752170714583</v>
+        <v>39.41823107371152</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>12.72492527436187</v>
+        <v>13.45955332158647</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>27.61444458594048</v>
+        <v>28.41114778070223</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>43.06519885919641</v>
+        <v>41.97945733188121</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>8.589238838401773</v>
+        <v>9.115340573751094</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>30.67680472130834</v>
+        <v>28.05540809320143</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>46.11676987005704</v>
+        <v>43.54116814042476</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>3.522326502837352</v>
+        <v>6.385393054442954</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>44.43993234289537</v>
+        <v>41.8565496681467</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>68.55753458894682</v>
+        <v>61.96198820285537</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>51.12370894175024</v>
+        <v>46.45917151392013</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>61.8427215508104</v>
+        <v>55.6545541496383</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>80.02587738425606</v>
+        <v>72.47697025065186</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>12.33226051405337</v>
+        <v>14.26875596914578</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>44.47429857520152</v>
+        <v>45.45048441004798</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>65.7597485636326</v>
+        <v>65.09482125063991</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>8.710977038043545</v>
+        <v>7.161945729763247</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.68326093996509</v>
+        <v>21.55618494501236</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.10120161689842</v>
+        <v>31.36001281597304</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>6.276258568275743</v>
+        <v>4.852963211756066</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>30.13538362814887</v>
+        <v>32.67637904208578</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>34.02931916473149</v>
+        <v>37.00474311469467</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>10.33210101339693</v>
+        <v>14.3530779002815</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>46.30519351684555</v>
+        <v>52.77980877277849</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>49.78935820891171</v>
+        <v>57.99296032782375</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>22.54102223370141</v>
+        <v>30.46859603533899</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>26.52452300263626</v>
+        <v>37.07680534574341</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>27.96115842836298</v>
+        <v>39.44015694882935</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>21.71802426657809</v>
+        <v>15.62914661426424</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22.93281388017755</v>
+        <v>25.9977299599787</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>40.47372571975319</v>
+        <v>40.93695605107193</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>10.55975402041349</v>
+        <v>14.48107335027763</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>26.2833685737734</v>
+        <v>30.23903285879406</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.88361812854334</v>
+        <v>29.8771299950178</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>4.101617748435103</v>
+        <v>3.51052793152995</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>16.055364692809</v>
+        <v>21.42056445533637</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>19.43203568502969</v>
+        <v>20.22722902407578</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>7.33380307583845</v>
+        <v>7.733739843680569</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.73592041220806</v>
+        <v>37.94159136013084</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>15.00866333964575</v>
+        <v>13.33031770202327</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.11436990417181</v>
+        <v>33.90085382909491</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>34.06512299257012</v>
+        <v>39.14715140993093</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>6.842597077568517</v>
+        <v>7.224287823399905</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>38.16703410435073</v>
+        <v>47.37484021486524</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>40.56718322413293</v>
+        <v>48.75427012671701</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>11.88274073355408</v>
+        <v>15.32854052129875</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>55.1412226756747</v>
+        <v>65.0904784124937</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>54.10476044983335</v>
+        <v>67.256880588659</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>47.09466765003998</v>
+        <v>57.98831360572041</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>52.81811636467118</v>
+        <v>64.05962284927362</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>51.57120669305836</v>
+        <v>64.36468623911946</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>21.61120608727129</v>
+        <v>19.22158062084047</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>38.45004312220607</v>
+        <v>49.20196295620849</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>43.00326772268421</v>
+        <v>55.46160444555244</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>19.68240135321853</v>
+        <v>22.43876996340956</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>33.73003697047004</v>
+        <v>41.30856076710783</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.34627544773267</v>
+        <v>39.03056356126062</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>4.897163718311756</v>
+        <v>7.717096625634467</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>31.24273216977687</v>
+        <v>37.38320771102181</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>30.45996526051962</v>
+        <v>35.35649319410338</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>11.34152854119415</v>
+        <v>16.5343604743639</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>48.37547241708454</v>
+        <v>58.80999450366011</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>7.870579186847859</v>
+        <v>7.406505206535343</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>23.43710452284875</v>
+        <v>28.20878977568984</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>31.58403731092631</v>
+        <v>34.38203325456799</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>6.098526263354501</v>
+        <v>4.23557737140089</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>36.14820190981346</v>
+        <v>43.5757126589944</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>38.64107058109781</v>
+        <v>47.25498682459681</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>11.02299944462675</v>
+        <v>12.85517753756365</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>52.75081939000466</v>
+        <v>61.78515022238437</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>54.8323818821503</v>
+        <v>65.94838417087354</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>53.70430517095537</v>
+        <v>59.77660105634318</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>56.01760651570949</v>
+        <v>63.94386021662909</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>56.91253211547167</v>
+        <v>66.10975277187323</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>10.19218814083739</v>
+        <v>8.396008414529826</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>27.24846235445142</v>
+        <v>39.8623963790786</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>35.203984294168</v>
+        <v>47.19704771740663</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>16.24045286959026</v>
+        <v>18.5727538259854</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>31.14500055153148</v>
+        <v>36.135656537176</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.39954075837552</v>
+        <v>36.20247291505692</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>4.54095909368424</v>
+        <v>5.039565016731952</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>27.61674626308303</v>
+        <v>32.86623247846134</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.18520922658308</v>
+        <v>34.71335184918161</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>11.45423195406621</v>
+        <v>14.47478130539771</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>44.05108674476811</v>
+        <v>55.05794634307389</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>6.26650582407423</v>
+        <v>-0.3072740550850099</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>21.65763794492266</v>
+        <v>21.72911786464175</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>30.82849579680125</v>
+        <v>32.32574395228893</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>5.865178429358487</v>
+        <v>3.837220228969478</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>36.25649522268916</v>
+        <v>41.58220878922136</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>40.12139521665673</v>
+        <v>49.67413913561739</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>8.133408988720095</v>
+        <v>10.52734112403787</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>50.73824100951322</v>
+        <v>58.35644478928657</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>54.31327779393007</v>
+        <v>66.46877564332901</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>47.27890558783736</v>
+        <v>52.30430909592037</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>50.65991071728146</v>
+        <v>58.82806249342734</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>53.37911020554674</v>
+        <v>61.92901915705595</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>8.623277390954048</v>
+        <v>7.458942559651959</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>23.85710463307178</v>
+        <v>35.04844412542903</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>38.53751385853648</v>
+        <v>49.89157658725249</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>14.00142859110299</v>
+        <v>11.67359316510718</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.76820661727113</v>
+        <v>32.76858908238908</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>30.25635042352912</v>
+        <v>35.31917106655432</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>4.699104314464993</v>
+        <v>3.082463162205361</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>25.6907037800055</v>
+        <v>30.19173292931893</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.62325932187418</v>
+        <v>34.81410515658062</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>9.196101087966122</v>
+        <v>9.70361382687215</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>39.25068169079999</v>
+        <v>49.20043960176047</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.94180396413078</v>
+        <v>38.75414866389367</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>23.63753689359133</v>
+        <v>33.28783354304684</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>38.66285717898759</v>
+        <v>48.60670649948243</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>40.48161424067186</v>
+        <v>48.59373249215895</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>15.03088606777494</v>
+        <v>20.49641153399627</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.54939675485281</v>
+        <v>37.57308978808474</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>33.33454452140776</v>
+        <v>38.56725476334989</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>17.11288011733225</v>
+        <v>18.14264577733909</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.79705413672882</v>
+        <v>30.75174280697745</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>35.8882121024815</v>
+        <v>39.42125187206567</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>3.578917793648113</v>
+        <v>3.558602352091164</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>15.91955914408562</v>
+        <v>19.85288998682697</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.1816174052834</v>
+        <v>27.08564820111438</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>8.671282958817141</v>
+        <v>13.48912938311993</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>32.19233394443836</v>
+        <v>43.99298636231579</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>49.63294507679269</v>
+        <v>55.90499481502128</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.18294785564565</v>
+        <v>37.6148655078871</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>47.75606277667431</v>
+        <v>55.5065136582197</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>48.58365182069456</v>
+        <v>58.90367385081281</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>14.66666400792502</v>
+        <v>20.46050549972243</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.93468807282707</v>
+        <v>40.64509349283034</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>39.15372535116558</v>
+        <v>50.22403431645542</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>50.05319161129226</v>
+        <v>59.98827025952879</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>48.26543353839327</v>
+        <v>61.82279166738044</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>54.27766653261251</v>
+        <v>68.85114992452324</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>55.50090348886792</v>
+        <v>67.44517728507</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>26.71137769170882</v>
+        <v>31.39229923787218</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>52.75437530024782</v>
+        <v>65.98198742761375</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>49.33320767868478</v>
+        <v>60.47901497440006</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>21.51755142126537</v>
+        <v>21.64983683803707</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>4.975195931870569</v>
+        <v>5.684247876298976</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>38.58282365021783</v>
+        <v>40.80355341696195</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>38.17207290363979</v>
+        <v>41.00999965922666</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>9.991707966393811</v>
+        <v>15.57020216579423</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>55.32961125581465</v>
+        <v>65.46178608726038</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>60.95537390745389</v>
+        <v>69.9043126965625</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>56.43985356318065</v>
+        <v>72.96326157861586</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>65.0555014686008</v>
+        <v>79.11791150770271</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>67.00852457314015</v>
+        <v>80.89030610729937</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.09139447352857</v>
+        <v>34.43730599762668</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>62.18812652786465</v>
+        <v>76.45247999181534</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>62.03017400013653</v>
+        <v>76.37531067311183</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>49.81223268899606</v>
+        <v>60.13846335705661</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>46.55302953991943</v>
+        <v>57.83347171002536</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>50.83751499964026</v>
+        <v>61.46129299044431</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>53.65079752031838</v>
+        <v>64.44861129842938</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>21.42144389947081</v>
+        <v>24.22539623623154</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>48.49038796698763</v>
+        <v>60.66088881725766</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>45.85937730533631</v>
+        <v>57.48948559737455</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>15.51132403421033</v>
+        <v>16.55310341367517</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>30.92311581575976</v>
+        <v>38.04581189563913</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>36.38620190270109</v>
+        <v>41.38339147852892</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>4.447693660556315</v>
+        <v>2.104003335406258</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>35.38468887957136</v>
+        <v>38.26935732786269</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.33592037058473</v>
+        <v>40.84021328194137</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>10.94583166630902</v>
+        <v>11.97592570913696</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>53.0787117371294</v>
+        <v>63.04751469312333</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>60.28923655673819</v>
+        <v>69.51268786384595</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>56.40744516886807</v>
+        <v>71.24182336767183</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>64.79488539567411</v>
+        <v>76.06218629258584</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>67.46117613182633</v>
+        <v>80.28542763868029</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>22.1507514004662</v>
+        <v>26.04290915282853</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>61.57461663649713</v>
+        <v>72.41183665602125</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>61.86699944384554</v>
+        <v>74.4254496164184</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>46.41143343821206</v>
+        <v>56.09356751587434</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>34.95567488995975</v>
+        <v>41.64071679248055</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>39.59152361961452</v>
+        <v>49.20712568813505</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>40.83231186191758</v>
+        <v>53.14783608708844</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>19.03568509804644</v>
+        <v>20.42406637084699</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>45.62166091221211</v>
+        <v>56.52656666562721</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>47.19963705403629</v>
+        <v>57.80566322418748</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>16.20298136246107</v>
+        <v>14.10842223194994</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.10306036180929</v>
+        <v>39.18872150271426</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>40.6992833351776</v>
+        <v>47.13520802639192</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>4.192435592062111</v>
+        <v>3.736746578653115</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.57736527684355</v>
+        <v>38.56387299669998</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>38.39510412887133</v>
+        <v>46.93309584679002</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>8.669223525015521</v>
+        <v>12.9785986920961</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>48.50384878807463</v>
+        <v>62.00289108404191</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>60.9678475390499</v>
+        <v>74.29626881082761</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>53.42816143317356</v>
+        <v>62.99552851685999</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>66.17729134692857</v>
+        <v>75.16849681089998</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>67.13347891034581</v>
+        <v>82.97745698237406</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>20.96871991626381</v>
+        <v>25.07502803779358</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>59.42878221104189</v>
+        <v>72.65499624332989</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>65.70782427017991</v>
+        <v>81.3588123245064</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>12.55131308559983</v>
+        <v>12.07113322175715</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>21.12339505505544</v>
+        <v>28.07819657569723</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>26.25482840859977</v>
+        <v>32.83557323936456</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>3.30990828155872</v>
+        <v>-3.735632682058064</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>13.34765210431224</v>
+        <v>20.30226659840176</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>16.81228587199477</v>
+        <v>20.97461219353181</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>5.362352093532724</v>
+        <v>5.875388648876164</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>37.10165986590833</v>
+        <v>44.07545048778992</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>40.38459388771662</v>
+        <v>44.7705181223383</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>20.01591133440942</v>
+        <v>23.70492512194195</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.46849482462591</v>
+        <v>30.37325069499345</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>25.27112147251746</v>
+        <v>29.47173662014388</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>11.8822635888756</v>
+        <v>7.401499454946734</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>16.01195648737468</v>
+        <v>19.05153047205129</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>17.33825732989997</v>
+        <v>25.11093523042437</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>17.57942402636573</v>
+        <v>18.61815802358642</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>27.73933098437536</v>
+        <v>35.25826145760644</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.37058999298995</v>
+        <v>34.35503497089091</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>3.77592128576179</v>
+        <v>4.733315853234021</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>13.78136256781958</v>
+        <v>22.07867202713415</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>16.2637640573021</v>
+        <v>21.798668725698</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>5.899129695029387</v>
+        <v>6.526277919181235</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.29867737740788</v>
+        <v>37.64632736027649</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>19.28340435489236</v>
+        <v>18.06099941451427</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>36.93964059459812</v>
+        <v>41.95975129494583</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>34.26556233370385</v>
+        <v>41.51872289979163</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>4.373445706577883</v>
+        <v>1.728780515414126</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.67485881211729</v>
+        <v>40.64017875588495</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>34.58417846196727</v>
+        <v>37.65294985857802</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>5.436816813847756</v>
+        <v>9.30229681106109</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>51.66569349965873</v>
+        <v>60.89089268198799</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>48.65187366983755</v>
+        <v>57.83528054992786</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>41.46044274136968</v>
+        <v>51.80146605080097</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>50.81486332620298</v>
+        <v>59.09602060556097</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>51.12766717913665</v>
+        <v>56.1745971026432</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>15.49643310998988</v>
+        <v>12.84764306201792</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>40.65803683986825</v>
+        <v>47.0536821157869</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>39.20083376117653</v>
+        <v>45.31270968310905</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>22.02572596922953</v>
+        <v>25.39325293721117</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>34.64745735572584</v>
+        <v>47.34607423468508</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>33.651846174361</v>
+        <v>45.00998765142087</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>3.444037570317821</v>
+        <v>9.373521097586165</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.87946712573669</v>
+        <v>41.28384627663056</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.72026561602853</v>
+        <v>40.32899738558376</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>6.785586347056803</v>
+        <v>15.9886692273845</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>50.39375750084367</v>
+        <v>61.78251437311678</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>7.903882613471456</v>
+        <v>13.01397307287969</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.12244006227792</v>
+        <v>36.72193346209541</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.08865508005484</v>
+        <v>37.05947726074007</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>3.2571493207817</v>
+        <v>0.9032928146489354</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>31.90398975253539</v>
+        <v>38.78053357603213</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>33.48554024837421</v>
+        <v>37.90645235586234</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>6.423213021653609</v>
+        <v>8.771855355991784</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>50.17310219114385</v>
+        <v>59.07388136098804</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>48.23964774746466</v>
+        <v>57.85933562776691</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>45.41488787235876</v>
+        <v>53.94168494625798</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>51.068448094757</v>
+        <v>59.18357722095078</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>51.19298184644118</v>
+        <v>58.17082946569244</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>3.269836690560783</v>
+        <v>3.443094548606428</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>26.1985592807896</v>
+        <v>38.66432169529153</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>24.67906350286606</v>
+        <v>37.2380618873541</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.33309579693035</v>
+        <v>21.48018954519205</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>33.39228271438751</v>
+        <v>41.80485267063509</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>32.99417603271453</v>
+        <v>42.25752175799036</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>3.933414697517009</v>
+        <v>7.151050971227978</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.2966326612566</v>
+        <v>36.86766054330334</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>30.11579415135364</v>
+        <v>40.26060835140649</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>6.094080462731061</v>
+        <v>14.32432620503733</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>46.09091051726135</v>
+        <v>57.95501891990996</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>8.256614917562317</v>
+        <v>9.069311223285055</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.19477059396447</v>
+        <v>33.43542660908128</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.44865104562173</v>
+        <v>39.12888760338829</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>4.767070696418241</v>
+        <v>3.802793567957032</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>33.500285871065</v>
+        <v>39.03977064870124</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>40.77571847981577</v>
+        <v>43.98223823883836</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>5.489465537040733</v>
+        <v>10.00796663472785</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>52.64224481417484</v>
+        <v>58.40655245813842</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>53.38733617671375</v>
+        <v>62.37092621147598</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>43.81452187922686</v>
+        <v>50.40378989210943</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>50.30521600579563</v>
+        <v>58.55912635343829</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>52.08668908033471</v>
+        <v>59.01746015900129</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>6.978439686990036</v>
+        <v>7.188501868649098</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.00886108147093</v>
+        <v>38.22633914408031</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>33.2905272195342</v>
+        <v>43.17166574384783</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>13.20594987199295</v>
+        <v>17.71517873363975</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>30.85921094520775</v>
+        <v>39.91668847510969</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>31.93341097709569</v>
+        <v>43.09829859476865</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>3.551583156421053</v>
+        <v>8.745173278699998</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.51957584364546</v>
+        <v>35.5246432386627</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>32.88174443138705</v>
+        <v>42.51589834415347</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>6.089680231520699</v>
+        <v>13.29367417105071</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>44.23598814242882</v>
+        <v>53.689988018962</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>27.4421983842765</v>
+        <v>38.35003173265594</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.07587680168025</v>
+        <v>35.28951044676146</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>37.50061087792672</v>
+        <v>52.00824492138329</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>40.42148701477508</v>
+        <v>50.93504415776928</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>12.80231370068521</v>
+        <v>18.77827222255653</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>23.22835410105765</v>
+        <v>35.21631301729866</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.29992734979651</v>
+        <v>39.45536282642755</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>18.68835993339985</v>
+        <v>21.80573833008204</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>32.21714431462782</v>
+        <v>37.3154056943476</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.75622886739656</v>
+        <v>41.66150917844195</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>2.697780537506318</v>
+        <v>2.307752553878565</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>14.44660607904383</v>
+        <v>19.72713603239938</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>21.34795219909163</v>
+        <v>24.59007179935801</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>7.43450511530677</v>
+        <v>9.079399834079098</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>32.78502499886842</v>
+        <v>41.6782432291574</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>49.42621371932048</v>
+        <v>51.15843815163781</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.17428894429525</v>
+        <v>39.6698295993265</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>44.09047063488977</v>
+        <v>56.75812097285066</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>50.04195739784187</v>
+        <v>59.39348716992815</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>13.29443509507993</v>
+        <v>18.09894282508712</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.52457467260043</v>
+        <v>40.33745042784213</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>39.12711087921428</v>
+        <v>48.721032732738</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>54.0557632946135</v>
+        <v>63.13997267728861</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>52.95759726608797</v>
+        <v>65.0406081440257</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>61.09305649501405</v>
+        <v>75.71423449483446</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>60.00046555203883</v>
+        <v>73.43715121860026</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>22.59870478173784</v>
+        <v>29.52748033407458</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>53.35413290960264</v>
+        <v>67.67513853061881</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>56.41621465216743</v>
+        <v>66.6844048378815</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>26.50437742136786</v>
+        <v>27.05261543377438</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>42.47793716518026</v>
+        <v>53.13633173230401</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>39.09753758075319</v>
+        <v>49.48266464259515</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>4.360794690737457</v>
+        <v>5.965937051397194</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>37.62459846044208</v>
+        <v>45.51423118432544</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>36.084626680953</v>
+        <v>41.11922625859454</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>8.057832439549468</v>
+        <v>13.21891682627541</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>58.3290781038255</v>
+        <v>68.33124206578032</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>59.82529202714198</v>
+        <v>68.22899289431135</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>65.66344555397868</v>
+        <v>79.64749080824632</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>71.55573430285682</v>
+        <v>86.40627310914181</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>73.26514905552233</v>
+        <v>86.86424209501033</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>30.09518652827089</v>
+        <v>32.93683617971331</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>65.40170361095531</v>
+        <v>80.91816244810342</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>65.12989234908191</v>
+        <v>78.3730589079573</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>52.02863569163115</v>
+        <v>63.74469371443445</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>49.15424914782121</v>
+        <v>60.78750890954402</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>56.20178115861373</v>
+        <v>67.93393135457302</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>58.7182543331145</v>
+        <v>70.98916899570916</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>16.82376227371515</v>
+        <v>22.76518778290686</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>50.20490174208224</v>
+        <v>62.78377501436348</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>51.09069999786421</v>
+        <v>63.96180630576829</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>20.26859982933837</v>
+        <v>21.80340553623589</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>39.856514568124</v>
+        <v>48.28929361726264</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>36.9265341515861</v>
+        <v>46.39392304121216</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>2.810109946924857</v>
+        <v>2.30909410289696</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>34.20565445089755</v>
+        <v>42.36983512274159</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.65295747922816</v>
+        <v>40.89908295634857</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>7.862391761849796</v>
+        <v>9.536488940594836</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>55.4538087833</v>
+        <v>65.21171913683425</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>59.02413994348452</v>
+        <v>67.70935023394432</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>62.04647719631912</v>
+        <v>77.06268121006789</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>68.82418291457172</v>
+        <v>82.40912344239706</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>72.66169650571995</v>
+        <v>86.45065698862041</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>22.83534125255999</v>
+        <v>24.56236159717268</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>62.98380651032067</v>
+        <v>76.63550216813644</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>61.23814210640631</v>
+        <v>76.26539938235609</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>53.10569585923029</v>
+        <v>62.00558021053496</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>35.37828886486479</v>
+        <v>46.66917003387742</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>42.55416824600139</v>
+        <v>56.54100596497885</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>48.53110506067445</v>
+        <v>61.03089904678866</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>14.04354791512177</v>
+        <v>23.63521341418539</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>48.7354906978827</v>
+        <v>60.77649385902465</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>52.80687262312445</v>
+        <v>65.04155369757908</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>18.2448789980416</v>
+        <v>18.45572260191724</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>41.66367259528274</v>
+        <v>46.49047942392743</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>40.46641417875919</v>
+        <v>50.787456381713</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>3.848278765907555</v>
+        <v>5.500738040982686</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>36.62650826403983</v>
+        <v>41.56060471074646</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>40.12660215072944</v>
+        <v>48.39245865894617</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>7.123205900925043</v>
+        <v>10.91038968754595</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>53.35177013829056</v>
+        <v>61.91210012569228</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>60.89496596954336</v>
+        <v>72.68003419664331</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>56.81913612671512</v>
+        <v>66.1703743487851</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>63.84705403680839</v>
+        <v>78.30863699658819</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>71.05199300397832</v>
+        <v>87.43889067839696</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>20.08070607638803</v>
+        <v>25.71217668603103</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>64.19784143470088</v>
+        <v>76.51975985566322</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>67.12493974743403</v>
+        <v>83.82303878431658</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>11.88001945984076</v>
+        <v>14.30582552205016</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>15.26900097767732</v>
+        <v>17.87426373401649</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>19.96457865558366</v>
+        <v>25.01527852667338</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>0.7169753821003013</v>
+        <v>-0.7488045151335037</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>10.5526968280269</v>
+        <v>10.83768531986112</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>12.44812116749048</v>
+        <v>12.79373299373568</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>3.691097537536294</v>
+        <v>4.076681926942751</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>27.62960322483239</v>
+        <v>28.81804861087519</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>30.01042504878981</v>
+        <v>31.38658899936954</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>12.91854884363605</v>
+        <v>13.96173260890995</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>17.32949462400042</v>
+        <v>17.88004041807513</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>17.32233608578732</v>
+        <v>18.65059950557173</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>10.81300819190547</v>
+        <v>12.86859325452981</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>11.87943277488273</v>
+        <v>14.96944041557988</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>19.34329003563039</v>
+        <v>24.24938458172453</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>10.07824414207704</v>
+        <v>11.9600768125498</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>20.30857038401059</v>
+        <v>19.8287588700306</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.58812534501896</v>
+        <v>21.16865358345085</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>1.169446398115632</v>
+        <v>0.4204646987586251</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>7.266174810200933</v>
+        <v>7.11220481409139</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>10.27184120083292</v>
+        <v>8.564806535527522</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>2.08937453873105</v>
+        <v>-3.329194154561048</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>19.50162876605088</v>
+        <v>17.28427674213721</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>13.27912105464971</v>
+        <v>16.24969055287047</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>23.27469276589928</v>
+        <v>24.48139192678106</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.71770498796421</v>
+        <v>27.45159065726093</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>0.756851624663728</v>
+        <v>1.69440594031202</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.89690841206219</v>
+        <v>23.90197343580245</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.93146620568525</v>
+        <v>23.26350143599201</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.866785863372385</v>
+        <v>5.363595606277123</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>36.22657825518502</v>
+        <v>39.67383322754482</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>35.06299385042878</v>
+        <v>39.40096533419145</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>31.25381500963764</v>
+        <v>37.37052315645715</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>38.74615181923658</v>
+        <v>42.37445305765367</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>40.89660050313739</v>
+        <v>42.30547393159883</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>16.47272167570278</v>
+        <v>18.70802541300823</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>35.6138750835025</v>
+        <v>39.2662445269417</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>37.37868306888804</v>
+        <v>41.26160866347072</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>13.44822461136022</v>
+        <v>14.00561466155637</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>24.50013988361796</v>
+        <v>26.01673296816006</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.54156310905621</v>
+        <v>27.1510156584274</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>0.8730361045060491</v>
+        <v>1.890305883611287</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.78112558397071</v>
+        <v>21.48415378394074</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.12294690144979</v>
+        <v>23.77985162688874</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>1.783046144146141</v>
+        <v>2.899343926936272</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>36.7591269660592</v>
+        <v>36.68660770015323</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>5.625876447201708</v>
+        <v>11.1866570180144</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>17.73500611833013</v>
+        <v>19.17900639805744</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>21.52789102204741</v>
+        <v>23.01777936821622</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>0.5842042920512753</v>
+        <v>0.6452519636923775</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>21.51541604331709</v>
+        <v>21.61808321194772</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.84756403646638</v>
+        <v>23.25541399672329</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>6.42422197397044</v>
+        <v>5.216489540992566</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>37.02688915028841</v>
+        <v>38.11424256953586</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>37.16388927049362</v>
+        <v>39.81836127061922</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.1006638997318</v>
+        <v>39.07800286800591</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>38.88442179784221</v>
+        <v>42.3306601810792</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>43.65846091313946</v>
+        <v>44.5540540892184</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>6.02801831551789</v>
+        <v>9.032903150568119</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>25.20767033364087</v>
+        <v>30.8023118974071</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.64539615051905</v>
+        <v>33.12379990014558</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>9.716898167304336</v>
+        <v>9.513998143352806</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>23.03487861642419</v>
+        <v>20.04560541891541</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.8804999521079</v>
+        <v>24.47652237140571</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>1.044980022457278</v>
+        <v>-0.8497773428273447</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>16.43158385175177</v>
+        <v>16.62567383356678</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>22.93998177660712</v>
+        <v>23.97909683813301</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>2.912477785026837</v>
+        <v>1.357000326260145</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>32.04180232708478</v>
+        <v>33.06698820999797</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>4.701743361599771</v>
+        <v>4.331750693287272</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>14.9401970749723</v>
+        <v>14.60689371014099</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>21.01226354221399</v>
+        <v>23.00495887354519</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>0.09204868806098787</v>
+        <v>-0.002340349886711834</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.22938766176334</v>
+        <v>20.50973499055011</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.29441015723821</v>
+        <v>27.12303715663571</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>0.8226050826414841</v>
+        <v>1.939640433287817</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>33.83538359083236</v>
+        <v>34.88730295613497</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>37.29984447240848</v>
+        <v>41.09420074861715</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.44556797587376</v>
+        <v>33.11685607209565</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>33.97858038736513</v>
+        <v>38.31312364006412</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>39.04061671633311</v>
+        <v>41.24241564416567</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>4.424595873941495</v>
+        <v>6.477802059951653</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.87778773788457</v>
+        <v>27.04028919794514</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>31.90841651252153</v>
+        <v>35.10765217047403</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>5.180878566869641</v>
+        <v>6.420273999630718</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>19.50449189637855</v>
+        <v>19.37231963629385</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>23.95489138894391</v>
+        <v>25.95450261776783</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>0.5855240406090125</v>
+        <v>1.052201067306701</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>17.61241222103169</v>
+        <v>16.29204599001571</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.92268624446786</v>
+        <v>26.60645393220327</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>0.5124738382033307</v>
+        <v>0.5798139604061454</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.69299830412919</v>
+        <v>29.73452821823107</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>18.12947800905822</v>
+        <v>19.5499944453176</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>14.9177380583991</v>
+        <v>12.78456973940779</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>24.39291325048874</v>
+        <v>23.91107141404807</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.9687809226918</v>
+        <v>22.6757109774084</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>6.840271024396547</v>
+        <v>4.878423352526728</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>12.80325307444714</v>
+        <v>12.5455915315789</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>18.21868622340837</v>
+        <v>17.15140854281746</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>16.61064594275338</v>
+        <v>18.74588425425901</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>27.67915502099939</v>
+        <v>26.11426923401102</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>32.64849554478246</v>
+        <v>32.25876975868653</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-0.05705735858774474</v>
+        <v>0.2489668943118062</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>9.169644607428552</v>
+        <v>8.709054839494772</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>16.19760599036967</v>
+        <v>14.4276560058102</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>4.237876022076648</v>
+        <v>3.372306296601277</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>26.88768797996887</v>
+        <v>27.46395268380396</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>41.15874133717458</v>
+        <v>37.06051720281687</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>21.86723309219266</v>
+        <v>26.44424151858386</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.34150511371963</v>
+        <v>35.76993621126218</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.65581348052164</v>
+        <v>37.93996262807025</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>8.348072147908539</v>
+        <v>9.548157972605452</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>21.17864267741248</v>
+        <v>22.3531601805941</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>31.41371284584508</v>
+        <v>31.51491344275473</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>40.86720054397749</v>
+        <v>40.78245485382378</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>37.98353927295108</v>
+        <v>38.14218994186011</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>45.70728192068503</v>
+        <v>45.69471375017527</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.97551915888916</v>
+        <v>43.47898405461198</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>15.57485178663539</v>
+        <v>14.82121493370507</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>40.32158565453196</v>
+        <v>42.77584836708204</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>42.6640146789771</v>
+        <v>43.20323411578843</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>26.4508389011629</v>
+        <v>24.23706042082631</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.59755803661704</v>
+        <v>41.29321778370188</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>37.80777063141471</v>
+        <v>40.89638588150196</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>3.054537274059488</v>
+        <v>7.109183203809213</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>33.4955180322797</v>
+        <v>36.42557887321216</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.2793486395344</v>
+        <v>34.77974495358018</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>9.656841041384368</v>
+        <v>11.74979169250884</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>55.97196574516967</v>
+        <v>57.19342010285996</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>55.24818673199617</v>
+        <v>58.67322831065184</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>66.02744422624362</v>
+        <v>70.88243333383186</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>69.5833125482759</v>
+        <v>71.51441572975536</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>70.92943259047962</v>
+        <v>71.33150807856136</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>36.92451590304583</v>
+        <v>31.87678674010399</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>62.12026512788162</v>
+        <v>68.5026060962921</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>64.96153277813207</v>
+        <v>68.69896208198368</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>41.41185218300745</v>
+        <v>42.20817143299364</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>32.24402314612988</v>
+        <v>33.67073236437122</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>39.76146144785245</v>
+        <v>38.45647192181966</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>42.87744433400291</v>
+        <v>42.01259395304905</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>9.501883680747797</v>
+        <v>7.972830362700785</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>37.63228617398099</v>
+        <v>38.34382558421265</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.14281446784666</v>
+        <v>41.63116001699287</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>18.92033833999067</v>
+        <v>18.99271299842675</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>33.8624988177644</v>
+        <v>37.44754484957446</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.61245846272604</v>
+        <v>39.02276781034836</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>1.040372706678319</v>
+        <v>4.022715226077668</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.7710150827763</v>
+        <v>34.91623785829316</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>33.03959687332255</v>
+        <v>36.53614306978361</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>9.400610501483719</v>
+        <v>9.40143074143597</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>55.06629688692772</v>
+        <v>56.40585919579415</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>57.46738909905918</v>
+        <v>60.77515499533021</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>63.66900975307157</v>
+        <v>69.82309472246142</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>68.49066390150952</v>
+        <v>69.9572255641079</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>72.25057587304931</v>
+        <v>73.63685037730819</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>27.36111044059712</v>
+        <v>24.2198371311353</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>61.31405822833486</v>
+        <v>66.50672832104904</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>64.46497990473128</v>
+        <v>69.35297011414404</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>40.23535052499192</v>
+        <v>40.93543348772187</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>20.19828988180254</v>
+        <v>20.54369908888234</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>25.9627887897301</v>
+        <v>25.78828036447775</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.33968627816103</v>
+        <v>30.86726870627216</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>5.566765576609168</v>
+        <v>6.194791127685814</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>35.02417788787247</v>
+        <v>34.98158460770159</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>40.38708973966148</v>
+        <v>40.81383000808211</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>15.01053513301739</v>
+        <v>13.46269554901586</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>36.08841570417687</v>
+        <v>35.02113973822865</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.73413367456188</v>
+        <v>41.401820583885</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>1.394972819761048</v>
+        <v>4.122750937625568</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>35.14251274115041</v>
+        <v>32.88159341724231</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>37.81362549165054</v>
+        <v>41.11933307246753</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>5.114201719803624</v>
+        <v>7.082779874113683</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>53.86694032039881</v>
+        <v>51.2498964947258</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>58.64219499900488</v>
+        <v>62.47172010366144</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>56.70168833981468</v>
+        <v>55.68712864935938</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>61.42727755054082</v>
+        <v>60.90891775722959</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>67.54138281443738</v>
+        <v>69.88787452436418</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>14.91447126385697</v>
+        <v>17.54436417957784</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>59.59143359861721</v>
+        <v>61.75919962119799</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>66.83416938524235</v>
+        <v>70.61021837978832</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>9.639491757343068</v>
+        <v>10.47202910864074</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>17.15743662706605</v>
+        <v>17.46063463193093</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>27.22011252799179</v>
+        <v>25.97911091354038</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>2.20061157742235</v>
+        <v>-0.4895089438577251</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>20.2112791808638</v>
+        <v>18.86127293446221</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>22.200863205271</v>
+        <v>21.63957062365052</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>8.217632236029711</v>
+        <v>7.903852223545881</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>37.20688509667842</v>
+        <v>38.96944861865014</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>40.44725569548879</v>
+        <v>43.18453894009011</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>16.54677434997021</v>
+        <v>18.78820641277561</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>22.55088873106238</v>
+        <v>26.10798536870182</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.90949072182767</v>
+        <v>29.95231221702628</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>15.90226590473855</v>
+        <v>14.84248772184542</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>15.39441156927279</v>
+        <v>19.39354087520049</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>30.26514932221182</v>
+        <v>30.79592142425667</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>13.41456374860728</v>
+        <v>14.6328703878257</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>30.88826708342438</v>
+        <v>28.67009863083678</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>37.38385769752211</v>
+        <v>34.82559363599146</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>1.668829710325362</v>
+        <v>-0.7329751129760886</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>12.36266337402357</v>
+        <v>11.86019796837811</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>15.37397134217345</v>
+        <v>17.29631586509623</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>2.659698221846156</v>
+        <v>0.1081962258385651</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.09671200423982</v>
+        <v>27.5052755470116</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>17.65894192531837</v>
+        <v>13.52210786799017</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.2232763252056</v>
+        <v>30.34858966359663</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>31.47342180059128</v>
+        <v>34.26140830026834</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>1.871466129917813</v>
+        <v>1.056368416344245</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>36.14638336558921</v>
+        <v>38.27641640811801</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>38.96844955271447</v>
+        <v>39.04326353959078</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>6.391006744624811</v>
+        <v>6.847252304213502</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>53.78423473575766</v>
+        <v>54.77102955758046</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>52.12848083637486</v>
+        <v>56.72402845699405</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>49.25991653664524</v>
+        <v>53.22603466033253</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>59.18813512593961</v>
+        <v>62.47067508470428</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>58.21746382434623</v>
+        <v>64.00426476235863</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>19.85088863977339</v>
+        <v>21.8981441835402</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>40.53052968189012</v>
+        <v>51.49541474089462</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>44.47294399962401</v>
+        <v>55.65222909629524</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>21.72129892693117</v>
+        <v>19.80752120242094</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>41.073349934474</v>
+        <v>42.15039667573355</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>43.85237298144072</v>
+        <v>47.26773729446067</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>3.295658038018203</v>
+        <v>4.095223803247293</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>35.21925536262809</v>
+        <v>35.93718433467434</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>42.76806485593403</v>
+        <v>43.82184192550044</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>5.432808861689612</v>
+        <v>9.586471148168823</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>59.72509121520848</v>
+        <v>56.80138393481711</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>6.3463028344588</v>
+        <v>7.021502302429045</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>20.52234486597689</v>
+        <v>25.0450482933441</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.23485422086011</v>
+        <v>30.62914872926608</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-0.7432162531430535</v>
+        <v>-1.312902992125728</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.36997908610108</v>
+        <v>35.95206096081029</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>35.44438678374193</v>
+        <v>40.28686608690779</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>4.162687429662039</v>
+        <v>5.428618504360358</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>50.99667253254474</v>
+        <v>53.50770553280793</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>53.92431773743237</v>
+        <v>58.58940039287312</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>51.81835045315657</v>
+        <v>55.06540664302472</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>56.99319123485131</v>
+        <v>61.68488136332613</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>60.13057977167357</v>
+        <v>66.46422540459211</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>8.992154212851254</v>
+        <v>10.92987032953551</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.96093029914427</v>
+        <v>42.26152143968301</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>35.91234299521371</v>
+        <v>49.78110620882634</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>12.69192432023377</v>
+        <v>13.71081547128617</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>34.58895284628141</v>
+        <v>35.77907040242431</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>41.75567499997491</v>
+        <v>44.04242029484173</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>1.766085791810543</v>
+        <v>0.5306229343355255</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.32199236807969</v>
+        <v>31.62180361531316</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.63140096375613</v>
+        <v>45.21754723961187</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>4.300023758093879</v>
+        <v>6.86379835268888</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>53.4661595828335</v>
+        <v>53.60574359588962</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>2.956007740716185</v>
+        <v>0.5660097455924422</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>16.41070958667349</v>
+        <v>18.5276420415227</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>24.50462823978284</v>
+        <v>28.80194554913446</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>0.5482781096931078</v>
+        <v>-0.7506452639661418</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>32.45583281167814</v>
+        <v>32.57268775971661</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>38.26959188910973</v>
+        <v>41.50338553728513</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>1.060989148812343</v>
+        <v>3.204314136192782</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>47.23425517945357</v>
+        <v>47.82977633880242</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>53.09780381378572</v>
+        <v>56.97902879072336</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>38.96496541437071</v>
+        <v>42.96414622002567</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>45.20316706099725</v>
+        <v>49.57021303613863</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>50.38607130780841</v>
+        <v>56.09332644703635</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>6.770749351564444</v>
+        <v>8.717495768886099</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>23.75687488122966</v>
+        <v>33.44179725236029</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>38.59343430049071</v>
+        <v>48.76833233941153</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>8.943724801075595</v>
+        <v>7.837842884381981</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>31.13723151773782</v>
+        <v>32.40696579600667</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>40.35062595057587</v>
+        <v>44.12294960948239</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>1.040972025336799</v>
+        <v>-0.4768323991521974</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>26.79953578029908</v>
+        <v>28.03980350993717</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>41.73205089401172</v>
+        <v>44.69704249807654</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>1.017378962915643</v>
+        <v>2.834779004334163</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>44.98078392999173</v>
+        <v>46.40238296995287</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.90397974056059</v>
+        <v>36.41254297483278</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>24.41972134784357</v>
+        <v>25.67902589857879</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>49.35799208044729</v>
+        <v>47.35529681687852</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>55.29740174389097</v>
+        <v>52.47947141123005</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>7.822353563320068</v>
+        <v>6.820463523063447</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>21.32686669812621</v>
+        <v>26.68854689763445</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.95200685614524</v>
+        <v>35.4860530952298</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>16.36186253233772</v>
+        <v>17.70457346313185</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.06242416834339</v>
+        <v>28.03248645867266</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>42.23404173712407</v>
+        <v>39.15766432916737</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>2.646611551609148</v>
+        <v>0.2328537456567936</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>11.59384589997657</v>
+        <v>10.88210703204266</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>14.96002552854045</v>
+        <v>18.97131673960528</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>2.571479622770347</v>
+        <v>2.826004095585933</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>24.83578532838729</v>
+        <v>31.08196444979513</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>43.35680599355169</v>
+        <v>45.66146641959767</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>27.99000507553373</v>
+        <v>31.58048037636835</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>53.03083630626926</v>
+        <v>52.6083088284489</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>58.11974322513796</v>
+        <v>57.77475148764468</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>8.243406577071081</v>
+        <v>6.251575301429106</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>23.54102650384663</v>
+        <v>26.82891476828471</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>33.40133187939298</v>
+        <v>39.64057136123981</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>70.02247370406437</v>
+        <v>69.08556425069646</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>61.99163065567709</v>
+        <v>63.23547299351227</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>77.05163714102993</v>
+        <v>76.12820748196137</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>81.84444366209772</v>
+        <v>81.88596826135085</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>27.20176752065175</v>
+        <v>26.5061911117572</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>71.59532151343572</v>
+        <v>72.31670104345781</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>80.18031838697621</v>
+        <v>77.27874758074385</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>27.40021386989735</v>
+        <v>23.39762246295763</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>45.81013538462709</v>
+        <v>47.91915826933254</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>50.96529370055136</v>
+        <v>53.03041357737272</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>4.424691777153612</v>
+        <v>6.599172176440096</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>45.70282696986284</v>
+        <v>45.63923304863063</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>51.98297976812302</v>
+        <v>49.24212065816626</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>7.576753104483881</v>
+        <v>11.59355455652498</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>73.95520682283572</v>
+        <v>69.16817874397967</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>80.4128837111336</v>
+        <v>78.24729497830963</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>85.15222630071042</v>
+        <v>86.06783182724183</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>93.98462849265988</v>
+        <v>95.7492160388222</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>97.43719569656926</v>
+        <v>99.09342370802582</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>37.23861717743932</v>
+        <v>35.02117882093265</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>93.45642960861085</v>
+        <v>88.97239370898865</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>93.13183517957251</v>
+        <v>94.28598988054695</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>71.95405276692503</v>
+        <v>71.41613663535389</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>54.10157080835315</v>
+        <v>56.88283636624836</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>63.36506624583617</v>
+        <v>65.37494515165189</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>79.20766763379166</v>
+        <v>78.10321505056439</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>18.15737064046436</v>
+        <v>18.82737161994491</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>66.07840290913515</v>
+        <v>67.21292396981471</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>76.50997620335764</v>
+        <v>76.89444658723151</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>15.10130216906732</v>
+        <v>16.03035619818633</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>39.06437279526234</v>
+        <v>42.9642594970358</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>46.52524529689615</v>
+        <v>50.40356084555607</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>2.245733700922003</v>
+        <v>2.395582789651115</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>42.36571015368176</v>
+        <v>44.26421916618044</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>51.80350276171704</v>
+        <v>52.29145547705164</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>4.741767752803835</v>
+        <v>7.748056399500875</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>70.34784568478395</v>
+        <v>68.43770163553496</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>81.43495017855881</v>
+        <v>81.35642061352956</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>81.71146175798651</v>
+        <v>83.56984371317927</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>90.12851488253804</v>
+        <v>91.70105691135491</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>95.91888641963487</v>
+        <v>99.28351302594605</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>25.07706113455708</v>
+        <v>25.14828073108705</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>87.57799908522782</v>
+        <v>84.63099090451377</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>92.62733027137145</v>
+        <v>95.09691498185482</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>67.52474123826161</v>
+        <v>66.19812477748191</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>35.03203135894871</v>
+        <v>37.32052245155386</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>46.27638279325771</v>
+        <v>50.26384845687964</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>61.66949388035035</v>
+        <v>64.90884719255061</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>11.88340784644651</v>
+        <v>11.24457585988808</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>58.52544915793387</v>
+        <v>57.51390243194471</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>72.28970590862961</v>
+        <v>73.06769967463178</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>13.32074959935673</v>
+        <v>13.29001122450345</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>39.86694116245646</v>
+        <v>41.87839961974647</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>52.54218476182221</v>
+        <v>55.55710155654315</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>3.028557545430839</v>
+        <v>4.08168786470786</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>40.54981463063471</v>
+        <v>40.93463745500578</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>55.22805952844326</v>
+        <v>55.93406406590778</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>2.253145471817639</v>
+        <v>7.31775979089845</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>63.13420206682301</v>
+        <v>62.08889774890842</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>83.53842584207266</v>
+        <v>82.11857109632327</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>71.43984132533066</v>
+        <v>68.42643559744276</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>88.97122055151496</v>
+        <v>83.39092917350001</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>98.47489522927012</v>
+        <v>98.46589762621934</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>18.33551988930532</v>
+        <v>17.36735985367921</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>76.06847771763125</v>
+        <v>73.0269137641185</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>92.59415901912172</v>
+        <v>92.83903158295942</v>
       </c>
     </row>
   </sheetData>
